--- a/capiq_data/in_process_data/IQ332954.xlsx
+++ b/capiq_data/in_process_data/IQ332954.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B24A4-A815-4389-B1B5-E1BB4E92329E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0F558-F8FA-4C8D-843D-95816522479E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"06ca9aad-7934-46f0-8847-83ab4740280a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c033fd0a-2479-4942-8de8-a8775794ee01"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>32.540999999999997</v>
+        <v>-7.37</v>
       </c>
       <c r="D2">
-        <v>85.87</v>
+        <v>55.415999999999997</v>
       </c>
       <c r="E2">
-        <v>1.101</v>
+        <v>35.021999999999998</v>
       </c>
       <c r="F2">
-        <v>53.095999999999997</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G2">
-        <v>455.45400000000001</v>
+        <v>647.89499999999998</v>
       </c>
       <c r="H2">
-        <v>489.58100000000002</v>
+        <v>886.82</v>
       </c>
       <c r="I2">
-        <v>10.773</v>
+        <v>17.497</v>
       </c>
       <c r="J2">
-        <v>293.43200000000002</v>
+        <v>187.81399999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>113.57299999999999</v>
+        <v>76.311999999999998</v>
       </c>
       <c r="O2">
-        <v>578.22500000000002</v>
+        <v>264.12599999999998</v>
       </c>
       <c r="P2">
-        <v>293.43200000000002</v>
+        <v>187.81399999999999</v>
       </c>
       <c r="Q2">
-        <v>29.108000000000001</v>
+        <v>-218.22200000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>247</v>
+        <v>1126</v>
       </c>
       <c r="T2">
-        <v>-88.644000000000005</v>
+        <v>622.69399999999996</v>
       </c>
       <c r="U2">
-        <v>417.91199999999998</v>
+        <v>110.155</v>
       </c>
       <c r="V2">
-        <v>27.402999999999999</v>
+        <v>-8.218</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>3.5459999999999998</v>
+        <v>-7.3840000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.89800000000000002</v>
+        <v>-154.934</v>
       </c>
       <c r="AA2">
-        <v>32.540999999999997</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-26.512</v>
+        <v>-10.311999999999999</v>
       </c>
       <c r="D3">
-        <v>31.972999999999999</v>
+        <v>51.121000000000002</v>
       </c>
       <c r="E3">
-        <v>15.279</v>
+        <v>21.6</v>
       </c>
       <c r="F3">
-        <v>-4.3090000000000002</v>
+        <v>-4.8380000000000001</v>
       </c>
       <c r="G3">
-        <v>425.96800000000002</v>
+        <v>609.85299999999995</v>
       </c>
       <c r="H3">
-        <v>459.60599999999999</v>
+        <v>851.94299999999998</v>
       </c>
       <c r="I3">
-        <v>7.7910000000000004</v>
+        <v>8.3170000000000002</v>
       </c>
       <c r="J3">
-        <v>298.91899999999998</v>
+        <v>179.58</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-5.6420000000000003</v>
       </c>
       <c r="N3">
-        <v>110.182</v>
+        <v>62.308</v>
       </c>
       <c r="O3">
-        <v>563.58399999999995</v>
+        <v>241.88800000000001</v>
       </c>
       <c r="P3">
-        <v>298.91899999999998</v>
+        <v>179.58</v>
       </c>
       <c r="Q3">
-        <v>-40.069000000000003</v>
+        <v>4.5339999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-103.97799999999999</v>
+        <v>610.05499999999995</v>
       </c>
       <c r="U3">
-        <v>377.84300000000002</v>
+        <v>114.68899999999999</v>
       </c>
       <c r="V3">
-        <v>-44.222000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>4.1289999999999996</v>
+        <v>-4.7370000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.57599999999999996</v>
+        <v>13.759</v>
       </c>
       <c r="AA3">
-        <v>-26.512</v>
+        <v>-10.311999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-51.871000000000002</v>
+        <v>-9.891</v>
       </c>
       <c r="D4">
-        <v>16.811</v>
+        <v>56.051000000000002</v>
       </c>
       <c r="E4">
-        <v>0.47599999999999998</v>
+        <v>31.581</v>
       </c>
       <c r="F4">
-        <v>-29.236000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G4">
-        <v>391.923</v>
+        <v>592.47</v>
       </c>
       <c r="H4">
-        <v>416.66300000000001</v>
+        <v>852.06799999999998</v>
       </c>
       <c r="I4">
-        <v>8.7880000000000003</v>
+        <v>8.4280000000000008</v>
       </c>
       <c r="J4">
-        <v>304.53399999999999</v>
+        <v>179.46899999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>110.667</v>
+        <v>68.307000000000002</v>
       </c>
       <c r="O4">
-        <v>552.947</v>
+        <v>247.77600000000001</v>
       </c>
       <c r="P4">
-        <v>304.53399999999999</v>
+        <v>179.46899999999999</v>
       </c>
       <c r="Q4">
-        <v>-18.768999999999998</v>
+        <v>-50.293999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-136.28399999999999</v>
+        <v>604.29200000000003</v>
       </c>
       <c r="U4">
-        <v>359.07400000000001</v>
+        <v>64.394999999999996</v>
       </c>
       <c r="V4">
-        <v>-30.736000000000001</v>
+        <v>-13.161</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>12.512</v>
+        <v>5.62</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.53</v>
+        <v>-38.609000000000002</v>
       </c>
       <c r="AA4">
-        <v>-51.87</v>
+        <v>-9.891</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-53.078000000000003</v>
+        <v>-17.827000000000002</v>
       </c>
       <c r="D5">
-        <v>16.782</v>
+        <v>57.319000000000003</v>
       </c>
       <c r="E5">
-        <v>2.4620000000000002</v>
+        <v>44.116999999999997</v>
       </c>
       <c r="F5">
-        <v>-27.821999999999999</v>
+        <v>6.657</v>
       </c>
       <c r="G5">
-        <v>346.41800000000001</v>
+        <v>592.91499999999996</v>
       </c>
       <c r="H5">
-        <v>371.22399999999999</v>
+        <v>825.64</v>
       </c>
       <c r="I5">
-        <v>11.038</v>
+        <v>8.2119999999999997</v>
       </c>
       <c r="J5">
-        <v>310.27699999999999</v>
+        <v>179.358</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>120.95699999999999</v>
+        <v>62.844999999999999</v>
       </c>
       <c r="O5">
-        <v>552.24400000000003</v>
+        <v>242.203</v>
       </c>
       <c r="P5">
-        <v>310.27699999999999</v>
+        <v>179.358</v>
       </c>
       <c r="Q5">
-        <v>-46.746000000000002</v>
+        <v>-18.907</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-181.02</v>
+        <v>583.43700000000001</v>
       </c>
       <c r="U5">
-        <v>312.32799999999997</v>
+        <v>45.488</v>
       </c>
       <c r="V5">
-        <v>-46.978000000000002</v>
+        <v>-24.917000000000002</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.073</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.33900000000000002</v>
+        <v>7.1959999999999997</v>
       </c>
       <c r="AA5">
-        <v>-53.078000000000003</v>
+        <v>-17.827000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-55.079000000000001</v>
+        <v>-145.20500000000001</v>
       </c>
       <c r="D6">
-        <v>28.89</v>
+        <v>54.771999999999998</v>
       </c>
       <c r="E6">
-        <v>4.1150000000000002</v>
+        <v>54.037999999999997</v>
       </c>
       <c r="F6">
-        <v>-22.986999999999998</v>
+        <v>3.2120000000000002</v>
       </c>
       <c r="G6">
-        <v>310.77800000000002</v>
+        <v>591.221</v>
       </c>
       <c r="H6">
-        <v>328.96199999999999</v>
+        <v>705.55899999999997</v>
       </c>
       <c r="I6">
-        <v>14.939</v>
+        <v>7.3470000000000004</v>
       </c>
       <c r="J6">
-        <v>316.15300000000002</v>
+        <v>179.24799999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>135.614</v>
+        <v>86.108000000000004</v>
       </c>
       <c r="O6">
-        <v>556.03899999999999</v>
+        <v>265.35599999999999</v>
       </c>
       <c r="P6">
-        <v>316.15300000000002</v>
+        <v>179.24799999999999</v>
       </c>
       <c r="Q6">
-        <v>-39.164000000000001</v>
+        <v>-2.12</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>368</v>
+        <v>585</v>
       </c>
       <c r="T6">
-        <v>-227.077</v>
+        <v>440.20299999999997</v>
       </c>
       <c r="U6">
-        <v>273.16399999999999</v>
+        <v>43.368000000000002</v>
       </c>
       <c r="V6">
-        <v>-39.779000000000003</v>
+        <v>-9.3059999999999992</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1.754</v>
+        <v>3.9260000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.14699999999999999</v>
+        <v>4.7160000000000002</v>
       </c>
       <c r="AA6">
-        <v>-55.079000000000001</v>
+        <v>-145.20500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-45.426000000000002</v>
+        <v>-13.441000000000001</v>
       </c>
       <c r="D7">
-        <v>36.179000000000002</v>
+        <v>29.013999999999999</v>
       </c>
       <c r="E7">
-        <v>11.61</v>
+        <v>27.690999999999999</v>
       </c>
       <c r="F7">
-        <v>-12.792</v>
+        <v>-4.7290000000000001</v>
       </c>
       <c r="G7">
-        <v>276.16199999999998</v>
+        <v>547.44100000000003</v>
       </c>
       <c r="H7">
-        <v>293.59300000000002</v>
+        <v>666.84699999999998</v>
       </c>
       <c r="I7">
-        <v>13.173999999999999</v>
+        <v>6.4850000000000003</v>
       </c>
       <c r="J7">
-        <v>312.61599999999999</v>
+        <v>179.137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>142.29900000000001</v>
+        <v>66.299000000000007</v>
       </c>
       <c r="O7">
-        <v>542.45000000000005</v>
+        <v>245.43600000000001</v>
       </c>
       <c r="P7">
-        <v>322.16199999999998</v>
+        <v>179.137</v>
       </c>
       <c r="Q7">
-        <v>-41.308999999999997</v>
+        <v>55.787999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-248.857</v>
+        <v>421.411</v>
       </c>
       <c r="U7">
-        <v>231.85499999999999</v>
+        <v>99.156000000000006</v>
       </c>
       <c r="V7">
-        <v>-54.401000000000003</v>
+        <v>-6.02</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>13.420999999999999</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.16700000000000001</v>
+        <v>62.206000000000003</v>
       </c>
       <c r="AA7">
-        <v>-45.426000000000002</v>
+        <v>-13.441000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>4.0369999999999999</v>
+        <v>-17.541</v>
       </c>
       <c r="D8">
-        <v>86.542000000000002</v>
+        <v>29.059000000000001</v>
       </c>
       <c r="E8">
-        <v>13.541</v>
+        <v>25.129000000000001</v>
       </c>
       <c r="F8">
-        <v>34.938000000000002</v>
+        <v>-8.6579999999999995</v>
       </c>
       <c r="G8">
-        <v>294.15800000000002</v>
+        <v>527.52</v>
       </c>
       <c r="H8">
-        <v>311.971</v>
+        <v>645.73599999999999</v>
       </c>
       <c r="I8">
-        <v>11.102</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="J8">
-        <v>318.63</v>
+        <v>172.25</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>139.73099999999999</v>
+        <v>69.213999999999999</v>
       </c>
       <c r="O8">
-        <v>529.15899999999999</v>
+        <v>241.464</v>
       </c>
       <c r="P8">
-        <v>328.31</v>
+        <v>172.25</v>
       </c>
       <c r="Q8">
-        <v>25.707999999999998</v>
+        <v>-54.963000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-217.18799999999999</v>
+        <v>404.27199999999999</v>
       </c>
       <c r="U8">
-        <v>257.56299999999999</v>
+        <v>44.192999999999998</v>
       </c>
       <c r="V8">
-        <v>8.7240000000000002</v>
+        <v>-8.8070000000000004</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>17.893999999999998</v>
+        <v>-2.8980000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>9.7000000000000003E-2</v>
+        <v>-38.472999999999999</v>
       </c>
       <c r="AA8">
-        <v>4.0369999999999999</v>
+        <v>-17.541</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-21.71</v>
+        <v>-38.411000000000001</v>
       </c>
       <c r="D9">
-        <v>60.491999999999997</v>
+        <v>22.39</v>
       </c>
       <c r="E9">
-        <v>13.84</v>
+        <v>14.78</v>
       </c>
       <c r="F9">
-        <v>10.382</v>
+        <v>-25.015999999999998</v>
       </c>
       <c r="G9">
-        <v>278.72800000000001</v>
+        <v>489.30900000000003</v>
       </c>
       <c r="H9">
-        <v>296.53500000000003</v>
+        <v>603.05399999999997</v>
       </c>
       <c r="I9">
-        <v>12.763999999999999</v>
+        <v>7.2160000000000002</v>
       </c>
       <c r="J9">
-        <v>324.78300000000002</v>
+        <v>172.143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>137.64099999999999</v>
+        <v>60.429000000000002</v>
       </c>
       <c r="O9">
-        <v>516.48500000000001</v>
+        <v>232.572</v>
       </c>
       <c r="P9">
-        <v>334.59899999999999</v>
+        <v>172.143</v>
       </c>
       <c r="Q9">
-        <v>-18.48</v>
+        <v>-28.457000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>-219.95</v>
+        <v>370.48200000000003</v>
       </c>
       <c r="U9">
-        <v>239.083</v>
+        <v>15.736000000000001</v>
       </c>
       <c r="V9">
-        <v>-27.145</v>
+        <v>-23.837</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8.9139999999999997</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.157</v>
+        <v>-2.1269999999999998</v>
       </c>
       <c r="AA9">
-        <v>-21.71</v>
+        <v>-38.411000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>18.779</v>
+        <v>-67.492000000000004</v>
       </c>
       <c r="D10">
-        <v>113.846</v>
+        <v>21.149000000000001</v>
       </c>
       <c r="E10">
-        <v>68.850999999999999</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="F10">
-        <v>53.982999999999997</v>
+        <v>-12.462999999999999</v>
       </c>
       <c r="G10">
-        <v>309.51400000000001</v>
+        <v>458.77100000000002</v>
       </c>
       <c r="H10">
-        <v>330.41899999999998</v>
+        <v>552.13900000000001</v>
       </c>
       <c r="I10">
-        <v>13.961</v>
+        <v>9.0730000000000004</v>
       </c>
       <c r="J10">
-        <v>331.07600000000002</v>
+        <v>172.036</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>136.07400000000001</v>
+        <v>77.692999999999998</v>
       </c>
       <c r="O10">
-        <v>505.37599999999998</v>
+        <v>249.72900000000001</v>
       </c>
       <c r="P10">
-        <v>331.07600000000002</v>
+        <v>172.036</v>
       </c>
       <c r="Q10">
-        <v>-15.026</v>
+        <v>7.1920000000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="T10">
-        <v>-174.95699999999999</v>
+        <v>302.41000000000003</v>
       </c>
       <c r="U10">
-        <v>224.05699999999999</v>
+        <v>22.928000000000001</v>
       </c>
       <c r="V10">
-        <v>-22.007999999999999</v>
+        <v>-19.602</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>7.4820000000000002</v>
+        <v>-4.4580000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.43</v>
+        <v>32.661999999999999</v>
       </c>
       <c r="AA10">
-        <v>18.779</v>
+        <v>-67.492000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-15.669</v>
+        <v>-55.783999999999999</v>
       </c>
       <c r="D11">
-        <v>71.076999999999998</v>
+        <v>12.509</v>
       </c>
       <c r="E11">
-        <v>27.140999999999998</v>
+        <v>8.0239999999999991</v>
       </c>
       <c r="F11">
-        <v>18.164000000000001</v>
+        <v>-17.677</v>
       </c>
       <c r="G11">
-        <v>309.113</v>
+        <v>401.90600000000001</v>
       </c>
       <c r="H11">
-        <v>330.28199999999998</v>
+        <v>496.87799999999999</v>
       </c>
       <c r="I11">
-        <v>15.515000000000001</v>
+        <v>7.4660000000000002</v>
       </c>
       <c r="J11">
-        <v>337.51299999999998</v>
+        <v>171.93</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>121.283</v>
+        <v>60.939</v>
       </c>
       <c r="O11">
-        <v>493.80799999999999</v>
+        <v>232.869</v>
       </c>
       <c r="P11">
-        <v>337.51299999999998</v>
+        <v>171.93</v>
       </c>
       <c r="Q11">
-        <v>41.756999999999998</v>
+        <v>-12.291</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-163.52600000000001</v>
+        <v>264.00900000000001</v>
       </c>
       <c r="U11">
-        <v>265.81400000000002</v>
+        <v>10.637</v>
       </c>
       <c r="V11">
-        <v>24.738</v>
+        <v>-42.75</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>17.777000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.13600000000000001</v>
+        <v>39.704999999999998</v>
       </c>
       <c r="AA11">
-        <v>-15.669</v>
+        <v>-55.783999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-2.5710000000000002</v>
+        <v>-26.9</v>
       </c>
       <c r="D12">
-        <v>101.675</v>
+        <v>11.036</v>
       </c>
       <c r="E12">
-        <v>26.422000000000001</v>
+        <v>7.5149999999999997</v>
       </c>
       <c r="F12">
-        <v>40.567999999999998</v>
+        <v>-18.834</v>
       </c>
       <c r="G12">
-        <v>313.36900000000003</v>
+        <v>378.553</v>
       </c>
       <c r="H12">
-        <v>334.21899999999999</v>
+        <v>470.47500000000002</v>
       </c>
       <c r="I12">
-        <v>13.471</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="J12">
-        <v>223.81700000000001</v>
+        <v>171.82300000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>102.958</v>
+        <v>61.295999999999999</v>
       </c>
       <c r="O12">
-        <v>362.005</v>
+        <v>233.119</v>
       </c>
       <c r="P12">
-        <v>223.81700000000001</v>
+        <v>171.82300000000001</v>
       </c>
       <c r="Q12">
-        <v>-7.6120000000000001</v>
+        <v>11.378</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-27.786000000000001</v>
+        <v>237.35599999999999</v>
       </c>
       <c r="U12">
-        <v>258.202</v>
+        <v>22.015000000000001</v>
       </c>
       <c r="V12">
-        <v>8.0809999999999995</v>
+        <v>-15.622999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>8.9999999999999993E-3</v>
+        <v>1.109</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-15.148999999999999</v>
+        <v>27.869</v>
       </c>
       <c r="AA12">
-        <v>-2.5710000000000002</v>
+        <v>-26.9</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-22.036000000000001</v>
+        <v>-43.012</v>
       </c>
       <c r="D13">
-        <v>85.123000000000005</v>
+        <v>13.249000000000001</v>
       </c>
       <c r="E13">
-        <v>31.396999999999998</v>
+        <v>10.179</v>
       </c>
       <c r="F13">
-        <v>13.263999999999999</v>
+        <v>-15.37</v>
       </c>
       <c r="G13">
-        <v>333.74299999999999</v>
+        <v>337.834</v>
       </c>
       <c r="H13">
-        <v>357.4</v>
+        <v>415.43700000000001</v>
       </c>
       <c r="I13">
-        <v>18.212</v>
+        <v>7.157</v>
       </c>
       <c r="J13">
-        <v>187.136</v>
+        <v>167.89</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>109.498</v>
+        <v>53.481999999999999</v>
       </c>
       <c r="O13">
-        <v>328.60899999999998</v>
+        <v>221.37200000000001</v>
       </c>
       <c r="P13">
-        <v>187.136</v>
+        <v>167.89</v>
       </c>
       <c r="Q13">
-        <v>13.92</v>
+        <v>-7.7080000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>28.791</v>
+        <v>194.065</v>
       </c>
       <c r="U13">
-        <v>272.12200000000001</v>
+        <v>14.307</v>
       </c>
       <c r="V13">
-        <v>-11.95</v>
+        <v>-40</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>26.873000000000001</v>
+        <v>-2.968</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.214</v>
+        <v>38.011000000000003</v>
       </c>
       <c r="AA13">
-        <v>-22.036999999999999</v>
+        <v>-43.012</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-42.871000000000002</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>97.072000000000003</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>33.673999999999999</v>
+        <v>5.2279999999999998</v>
       </c>
       <c r="F14">
-        <v>21.885999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>555.79899999999998</v>
+        <v>310.92700000000002</v>
       </c>
       <c r="H14">
-        <v>629.56799999999998</v>
+        <v>379.54500000000002</v>
       </c>
       <c r="I14">
-        <v>19.102</v>
+        <v>6.45</v>
       </c>
       <c r="J14">
-        <v>661.56700000000001</v>
+        <v>167.786</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>108.042</v>
+        <v>41.99</v>
       </c>
       <c r="O14">
-        <v>822.67600000000004</v>
+        <v>225.21199999999999</v>
       </c>
       <c r="P14">
-        <v>661.56700000000001</v>
+        <v>167.786</v>
       </c>
       <c r="Q14">
-        <v>199.30699999999999</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="T14">
-        <v>-193.108</v>
+        <v>154.333</v>
       </c>
       <c r="U14">
-        <v>471.42899999999997</v>
+        <v>29.698</v>
       </c>
       <c r="V14">
-        <v>-11.689</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>230.93</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-17.902999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-42.871000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-33.957000000000001</v>
+        <v>-37.715000000000003</v>
       </c>
       <c r="D15">
-        <v>89.792000000000002</v>
+        <v>5.4829999999999997</v>
       </c>
       <c r="E15">
-        <v>45.293999999999997</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="F15">
-        <v>14.039</v>
+        <v>-19.629000000000001</v>
       </c>
       <c r="G15">
-        <v>581.16999999999996</v>
+        <v>514.11900000000003</v>
       </c>
       <c r="H15">
-        <v>666.82600000000002</v>
+        <v>582.46799999999996</v>
       </c>
       <c r="I15">
-        <v>17.95</v>
+        <v>5.49</v>
       </c>
       <c r="J15">
-        <v>665.22199999999998</v>
+        <v>417.68200000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>106.944</v>
+        <v>46.968000000000004</v>
       </c>
       <c r="O15">
-        <v>829.24800000000005</v>
+        <v>464.65</v>
       </c>
       <c r="P15">
-        <v>695.12199999999996</v>
+        <v>417.68200000000002</v>
       </c>
       <c r="Q15">
-        <v>-34.844000000000001</v>
+        <v>106.149</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-162.422</v>
+        <v>117.818</v>
       </c>
       <c r="U15">
-        <v>436.58499999999998</v>
+        <v>135.84700000000001</v>
       </c>
       <c r="V15">
-        <v>-31.693999999999999</v>
+        <v>-36.509</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>44.536999999999999</v>
+        <v>243.261</v>
       </c>
       <c r="Y15">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-45.024000000000001</v>
+        <v>-100.54600000000001</v>
       </c>
       <c r="AA15">
-        <v>-33.957000000000001</v>
+        <v>-37.715000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-36.872999999999998</v>
+        <v>-63.6</v>
       </c>
       <c r="D16">
-        <v>99.581999999999994</v>
+        <v>4.0060000000000002</v>
       </c>
       <c r="E16">
-        <v>46.305</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="F16">
-        <v>14.712</v>
+        <v>-20.445</v>
       </c>
       <c r="G16">
-        <v>577.14499999999998</v>
+        <v>483.39499999999998</v>
       </c>
       <c r="H16">
-        <v>679.10699999999997</v>
+        <v>538.11800000000005</v>
       </c>
       <c r="I16">
-        <v>27.251000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
-        <v>673.31500000000005</v>
+        <v>417.57799999999997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>112.547</v>
+        <v>67.908000000000001</v>
       </c>
       <c r="O16">
-        <v>850.10500000000002</v>
+        <v>485.48599999999999</v>
       </c>
       <c r="P16">
-        <v>712.21500000000003</v>
+        <v>417.57799999999997</v>
       </c>
       <c r="Q16">
-        <v>-30.321000000000002</v>
+        <v>17.085999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-170.99799999999999</v>
+        <v>52.631999999999998</v>
       </c>
       <c r="U16">
-        <v>406.26400000000001</v>
+        <v>152.93299999999999</v>
       </c>
       <c r="V16">
-        <v>-14.557</v>
+        <v>-25.934999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>12.779</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="Y16">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-19.844000000000001</v>
+        <v>40.616999999999997</v>
       </c>
       <c r="AA16">
-        <v>-36.872999999999998</v>
+        <v>-63.6</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>59.292000000000002</v>
+        <v>-25.975999999999999</v>
       </c>
       <c r="D17">
-        <v>198.14699999999999</v>
+        <v>2.3319999999999999</v>
       </c>
       <c r="E17">
-        <v>108.899</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="F17">
-        <v>109.389</v>
+        <v>-15.316000000000001</v>
       </c>
       <c r="G17">
-        <v>662.61400000000003</v>
+        <v>420.84300000000002</v>
       </c>
       <c r="H17">
-        <v>785.26499999999999</v>
+        <v>470.50400000000002</v>
       </c>
       <c r="I17">
-        <v>26.605</v>
+        <v>2.95</v>
       </c>
       <c r="J17">
-        <v>681.31299999999999</v>
+        <v>378.846</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>124.66</v>
+        <v>60.898000000000003</v>
       </c>
       <c r="O17">
-        <v>874.85599999999999</v>
+        <v>439.74400000000003</v>
       </c>
       <c r="P17">
-        <v>730.21299999999997</v>
+        <v>378.846</v>
       </c>
       <c r="Q17">
-        <v>-24.26</v>
+        <v>-74.209000000000003</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>-89.590999999999994</v>
+        <v>30.76</v>
       </c>
       <c r="U17">
-        <v>382.00400000000002</v>
+        <v>78.724000000000004</v>
       </c>
       <c r="V17">
-        <v>27.786999999999999</v>
+        <v>-24.734000000000002</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>6.6440000000000001</v>
+        <v>-37.274999999999999</v>
       </c>
       <c r="Y17">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-48.031999999999996</v>
+        <v>-12.612</v>
       </c>
       <c r="AA17">
-        <v>59.292999999999999</v>
+        <v>-25.975999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-36.942999999999998</v>
+        <v>-37.526000000000003</v>
       </c>
       <c r="D18">
-        <v>123.973</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="E18">
-        <v>57.633000000000003</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="F18">
-        <v>22.827999999999999</v>
+        <v>-18.736000000000001</v>
       </c>
       <c r="G18">
-        <v>679.57299999999998</v>
+        <v>481.31299999999999</v>
       </c>
       <c r="H18">
-        <v>796.47699999999998</v>
+        <v>516.91899999999998</v>
       </c>
       <c r="I18">
-        <v>24.462</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="J18">
-        <v>589.98099999999999</v>
+        <v>378.76600000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>221.06100000000001</v>
+        <v>31.481000000000002</v>
       </c>
       <c r="O18">
-        <v>878.10500000000002</v>
+        <v>438.40199999999999</v>
       </c>
       <c r="P18">
-        <v>675.16700000000003</v>
+        <v>378.76600000000002</v>
       </c>
       <c r="Q18">
-        <v>70.293000000000006</v>
+        <v>53.456000000000003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>588</v>
+        <v>186</v>
       </c>
       <c r="T18">
-        <v>-81.628</v>
+        <v>78.516999999999996</v>
       </c>
       <c r="U18">
-        <v>452.29700000000003</v>
+        <v>132.18</v>
       </c>
       <c r="V18">
-        <v>44.72</v>
+        <v>-27.489000000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>29.097000000000001</v>
+        <v>86.225999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2.3370000000000002</v>
+        <v>-4.7679999999999998</v>
       </c>
       <c r="AA18">
-        <v>-36.942999999999998</v>
+        <v>-37.526000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-18.359000000000002</v>
+        <v>-20.131</v>
       </c>
       <c r="D19">
-        <v>159.27500000000001</v>
+        <v>2.915</v>
       </c>
       <c r="E19">
-        <v>69.103999999999999</v>
+        <v>2.5470000000000002</v>
       </c>
       <c r="F19">
-        <v>37.936</v>
+        <v>-14.849</v>
       </c>
       <c r="G19">
-        <v>692.14499999999998</v>
+        <v>457.49200000000002</v>
       </c>
       <c r="H19">
-        <v>862.62400000000002</v>
+        <v>487.45800000000003</v>
       </c>
       <c r="I19">
-        <v>26.585999999999999</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="J19">
-        <v>610.21</v>
+        <v>378.68599999999998</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.45200000000000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>225.595</v>
+        <v>21.64</v>
       </c>
       <c r="O19">
-        <v>904.03700000000003</v>
+        <v>427.59</v>
       </c>
       <c r="P19">
-        <v>697.54700000000003</v>
+        <v>378.68599999999998</v>
       </c>
       <c r="Q19">
-        <v>-30.475000000000001</v>
+        <v>-27.344000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-41.412999999999997</v>
+        <v>59.868000000000002</v>
       </c>
       <c r="U19">
-        <v>421.822</v>
+        <v>104.836</v>
       </c>
       <c r="V19">
-        <v>-4.5860000000000003</v>
+        <v>-26.273</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>32.686</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-55.021999999999998</v>
+        <v>-1.081</v>
       </c>
       <c r="AA19">
-        <v>-18.359000000000002</v>
+        <v>-20.131</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>9.2959999999999994</v>
+        <v>-25.145</v>
       </c>
       <c r="D20">
-        <v>162.98400000000001</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="E20">
-        <v>74.622</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F20">
-        <v>44.284999999999997</v>
+        <v>-23.88</v>
       </c>
       <c r="G20">
-        <v>732.99</v>
+        <v>407.858</v>
       </c>
       <c r="H20">
-        <v>930.33699999999999</v>
+        <v>436.64699999999999</v>
       </c>
       <c r="I20">
-        <v>29.161999999999999</v>
+        <v>4.1829999999999998</v>
       </c>
       <c r="J20">
-        <v>617.02499999999998</v>
+        <v>349.50599999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>192.47200000000001</v>
+        <v>27.033000000000001</v>
       </c>
       <c r="O20">
-        <v>875.16300000000001</v>
+        <v>402.89600000000002</v>
       </c>
       <c r="P20">
-        <v>659.96500000000003</v>
+        <v>349.50599999999997</v>
       </c>
       <c r="Q20">
-        <v>17.859000000000002</v>
+        <v>-67.659000000000006</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>55.173999999999999</v>
+        <v>33.750999999999998</v>
       </c>
       <c r="U20">
-        <v>439.68099999999998</v>
+        <v>37.177</v>
       </c>
       <c r="V20">
-        <v>13.39</v>
+        <v>-20.114999999999998</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>31.16</v>
+        <v>-27.631</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-24.495000000000001</v>
+        <v>-19.029</v>
       </c>
       <c r="AA20">
-        <v>9.2940000000000005</v>
+        <v>-25.145</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-39.582000000000001</v>
+        <v>-30.210999999999999</v>
       </c>
       <c r="D21">
-        <v>187.61099999999999</v>
+        <v>1.228</v>
       </c>
       <c r="E21">
-        <v>86.665999999999997</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="F21">
-        <v>47.497999999999998</v>
+        <v>-26.128</v>
       </c>
       <c r="G21">
-        <v>757.91399999999999</v>
+        <v>370.82100000000003</v>
       </c>
       <c r="H21">
-        <v>931.93200000000002</v>
+        <v>398.10899999999998</v>
       </c>
       <c r="I21">
-        <v>27.366</v>
+        <v>4.3719999999999999</v>
       </c>
       <c r="J21">
-        <v>623.928</v>
+        <v>341.91899999999998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>155.82300000000001</v>
+        <v>27.283999999999999</v>
       </c>
       <c r="O21">
-        <v>843.19500000000005</v>
+        <v>394.59399999999999</v>
       </c>
       <c r="P21">
-        <v>623.93299999999999</v>
+        <v>341.91899999999998</v>
       </c>
       <c r="Q21">
-        <v>6.12</v>
+        <v>12.02</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>88.736999999999995</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="U21">
-        <v>445.80099999999999</v>
+        <v>49.197000000000003</v>
       </c>
       <c r="V21">
-        <v>7.7229999999999999</v>
+        <v>-27.465</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>13.612</v>
+        <v>-7.3019999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1.857</v>
+        <v>46.993000000000002</v>
       </c>
       <c r="AA21">
-        <v>-39.582000000000001</v>
+        <v>-30.21</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>55.176000000000002</v>
+        <v>-27.556000000000001</v>
       </c>
       <c r="D22">
-        <v>243.881</v>
+        <v>1.028</v>
       </c>
       <c r="E22">
-        <v>114.15</v>
+        <v>1.423</v>
       </c>
       <c r="F22">
-        <v>117.545</v>
+        <v>-22.914000000000001</v>
       </c>
       <c r="G22">
-        <v>842.375</v>
+        <v>353.976</v>
       </c>
       <c r="H22">
-        <v>1007.44</v>
+        <v>374.108</v>
       </c>
       <c r="I22">
-        <v>30.085000000000001</v>
+        <v>3.573</v>
       </c>
       <c r="J22">
-        <v>619.89300000000003</v>
+        <v>341.86200000000002</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>168.00700000000001</v>
+        <v>27.856999999999999</v>
       </c>
       <c r="O22">
-        <v>836.28499999999997</v>
+        <v>393.505</v>
       </c>
       <c r="P22">
-        <v>619.89300000000003</v>
+        <v>341.86200000000002</v>
       </c>
       <c r="Q22">
-        <v>75.638000000000005</v>
+        <v>-37.703000000000003</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>692</v>
+        <v>177</v>
       </c>
       <c r="T22">
-        <v>171.155</v>
+        <v>-19.396999999999998</v>
       </c>
       <c r="U22">
-        <v>521.43899999999996</v>
+        <v>11.494</v>
       </c>
       <c r="V22">
-        <v>70.009</v>
+        <v>-28.018999999999998</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>10.157999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>2.367</v>
+        <v>-9.7810000000000006</v>
       </c>
       <c r="AA22">
-        <v>55.176000000000002</v>
+        <v>-27.556000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>24.047000000000001</v>
+        <v>-17.306000000000001</v>
       </c>
       <c r="D23">
-        <v>263.464</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="E23">
-        <v>101.18</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="F23">
-        <v>100.63500000000001</v>
+        <v>-18.292000000000002</v>
       </c>
       <c r="G23">
-        <v>935.58100000000002</v>
+        <v>329.17899999999997</v>
       </c>
       <c r="H23">
-        <v>1103.942</v>
+        <v>398.75599999999997</v>
       </c>
       <c r="I23">
-        <v>31.899000000000001</v>
+        <v>5.9089999999999998</v>
       </c>
       <c r="J23">
-        <v>627.64200000000005</v>
+        <v>256.83</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>200.31899999999999</v>
+        <v>140.34200000000001</v>
       </c>
       <c r="O23">
-        <v>876.19399999999996</v>
+        <v>436.52699999999999</v>
       </c>
       <c r="P23">
-        <v>627.64200000000005</v>
+        <v>348.63400000000001</v>
       </c>
       <c r="Q23">
-        <v>136.17599999999999</v>
+        <v>37.31</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>227.74799999999999</v>
+        <v>-37.771000000000001</v>
       </c>
       <c r="U23">
-        <v>657.61500000000001</v>
+        <v>48.804000000000002</v>
       </c>
       <c r="V23">
-        <v>97.534999999999997</v>
+        <v>15.602</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>9.8840000000000003</v>
+        <v>10.238</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>34.319000000000003</v>
+        <v>11.577</v>
       </c>
       <c r="AA23">
-        <v>24.047000000000001</v>
+        <v>-17.306000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>34.424999999999997</v>
+        <v>-20.52</v>
       </c>
       <c r="D24">
-        <v>246.28800000000001</v>
+        <v>6.8550000000000004</v>
       </c>
       <c r="E24">
-        <v>129.286</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="F24">
-        <v>113.652</v>
+        <v>-12.869</v>
       </c>
       <c r="G24">
-        <v>792.13</v>
+        <v>296.16699999999997</v>
       </c>
       <c r="H24">
-        <v>1417.9749999999999</v>
+        <v>375.11200000000002</v>
       </c>
       <c r="I24">
-        <v>40.723999999999997</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="J24">
-        <v>635.49099999999999</v>
+        <v>256.92599999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>198.98599999999999</v>
+        <v>140.95099999999999</v>
       </c>
       <c r="O24">
-        <v>1120.912</v>
+        <v>429.83699999999999</v>
       </c>
       <c r="P24">
-        <v>635.49099999999999</v>
+        <v>348.673</v>
       </c>
       <c r="Q24">
-        <v>-169.96100000000001</v>
+        <v>-12.866</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>297.06299999999999</v>
+        <v>-54.725000000000001</v>
       </c>
       <c r="U24">
-        <v>487.654</v>
+        <v>35.938000000000002</v>
       </c>
       <c r="V24">
-        <v>17.571999999999999</v>
+        <v>-21.04</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>27.763000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>11.778</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="AA24">
-        <v>34.424999999999997</v>
+        <v>-20.52</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>36.877000000000002</v>
+        <v>-15.837</v>
       </c>
       <c r="D25">
-        <v>269.46899999999999</v>
+        <v>7.2679999999999998</v>
       </c>
       <c r="E25">
-        <v>131.423</v>
+        <v>1.39</v>
       </c>
       <c r="F25">
-        <v>106.08</v>
+        <v>-12.29</v>
       </c>
       <c r="G25">
-        <v>886.66</v>
+        <v>432.00099999999998</v>
       </c>
       <c r="H25">
-        <v>1544.1949999999999</v>
+        <v>464.88600000000002</v>
       </c>
       <c r="I25">
-        <v>57.524000000000001</v>
+        <v>3.7040000000000002</v>
       </c>
       <c r="J25">
-        <v>643.43399999999997</v>
+        <v>369.04199999999997</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>240.54499999999999</v>
+        <v>136.79300000000001</v>
       </c>
       <c r="O25">
-        <v>1174.2090000000001</v>
+        <v>531.03599999999994</v>
       </c>
       <c r="P25">
-        <v>643.43399999999997</v>
+        <v>460.73200000000003</v>
       </c>
       <c r="Q25">
-        <v>92.444999999999993</v>
+        <v>79.983000000000004</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>369.98599999999999</v>
+        <v>-66.150000000000006</v>
       </c>
       <c r="U25">
-        <v>580.09900000000005</v>
+        <v>115.92100000000001</v>
       </c>
       <c r="V25">
-        <v>95.271000000000001</v>
+        <v>-22.747</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>7.1260000000000003</v>
+        <v>111.93</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>4.7969999999999997</v>
+        <v>-8.8960000000000008</v>
       </c>
       <c r="AA25">
-        <v>36.877000000000002</v>
+        <v>-15.837999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>8.8729999999999993</v>
+        <v>-20.503</v>
       </c>
       <c r="D26">
-        <v>326.49799999999999</v>
+        <v>7.056</v>
       </c>
       <c r="E26">
-        <v>148.15799999999999</v>
+        <v>2.073</v>
       </c>
       <c r="F26">
-        <v>145.303</v>
+        <v>-16.503</v>
       </c>
       <c r="G26">
-        <v>994.178</v>
+        <v>327.76100000000002</v>
       </c>
       <c r="H26">
-        <v>1638.597</v>
+        <v>353.60300000000001</v>
       </c>
       <c r="I26">
-        <v>75.599000000000004</v>
+        <v>5.9160000000000004</v>
       </c>
       <c r="J26">
-        <v>651.48099999999999</v>
+        <v>371.10300000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>273.50099999999998</v>
+        <v>49.34</v>
       </c>
       <c r="O26">
-        <v>1219.1300000000001</v>
+        <v>438.51100000000002</v>
       </c>
       <c r="P26">
-        <v>651.48099999999999</v>
+        <v>371.10300000000001</v>
       </c>
       <c r="Q26">
-        <v>72.244</v>
+        <v>-97.06</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>980</v>
+        <v>186</v>
       </c>
       <c r="T26">
-        <v>419.46699999999998</v>
+        <v>-84.908000000000001</v>
       </c>
       <c r="U26">
-        <v>652.34299999999996</v>
+        <v>18.861000000000001</v>
       </c>
       <c r="V26">
-        <v>94.378</v>
+        <v>-22.181999999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>13.872</v>
+        <v>-91.185000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-20.248999999999999</v>
+        <v>17.306000000000001</v>
       </c>
       <c r="AA26">
-        <v>8.8729999999999993</v>
+        <v>-20.503</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-187.083</v>
+        <v>-22.146999999999998</v>
       </c>
       <c r="D27">
-        <v>384.08199999999999</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="E27">
-        <v>244.375</v>
+        <v>1.44</v>
       </c>
       <c r="F27">
-        <v>-38.661999999999999</v>
+        <v>-16.484000000000002</v>
       </c>
       <c r="G27">
-        <v>819.17499999999995</v>
+        <v>300.42200000000003</v>
       </c>
       <c r="H27">
-        <v>1607.347</v>
+        <v>324.93299999999999</v>
       </c>
       <c r="I27">
-        <v>86.326999999999998</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="J27">
-        <v>41.603999999999999</v>
+        <v>373.19900000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>304.71600000000001</v>
+        <v>39.65</v>
       </c>
       <c r="O27">
-        <v>641.41300000000001</v>
+        <v>429.41</v>
       </c>
       <c r="P27">
-        <v>41.603999999999999</v>
+        <v>373.19900000000001</v>
       </c>
       <c r="Q27">
-        <v>-290.50400000000002</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>965.93399999999997</v>
+        <v>-104.477</v>
       </c>
       <c r="U27">
-        <v>361.82299999999998</v>
+        <v>20.297999999999998</v>
       </c>
       <c r="V27">
-        <v>-173.63800000000001</v>
+        <v>-25.352</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>21.96</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-117.852</v>
+        <v>26.849</v>
       </c>
       <c r="AA27">
-        <v>-187.083</v>
+        <v>-22.146999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-12.484</v>
+        <v>-18.439</v>
       </c>
       <c r="D28">
-        <v>326.44400000000002</v>
+        <v>10.576000000000001</v>
       </c>
       <c r="E28">
-        <v>169.01599999999999</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="F28">
-        <v>104.398</v>
+        <v>-12.725</v>
       </c>
       <c r="G28">
-        <v>844.803</v>
+        <v>288.31200000000001</v>
       </c>
       <c r="H28">
-        <v>1639.443</v>
+        <v>308.798</v>
       </c>
       <c r="I28">
-        <v>69.093000000000004</v>
+        <v>4.9589999999999996</v>
       </c>
       <c r="J28">
-        <v>23.428000000000001</v>
+        <v>375.33300000000003</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>293.161</v>
+        <v>38.192</v>
       </c>
       <c r="O28">
-        <v>612.60799999999995</v>
+        <v>428.43299999999999</v>
       </c>
       <c r="P28">
-        <v>23.428000000000001</v>
+        <v>375.33300000000003</v>
       </c>
       <c r="Q28">
-        <v>89.971999999999994</v>
+        <v>13.637</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1026.835</v>
+        <v>-119.63500000000001</v>
       </c>
       <c r="U28">
-        <v>451.75400000000002</v>
+        <v>33.935000000000002</v>
       </c>
       <c r="V28">
-        <v>116.794</v>
+        <v>-15.77</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>10.532</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-6.819</v>
+        <v>28.753</v>
       </c>
       <c r="AA28">
-        <v>-12.484</v>
+        <v>-18.439</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>36.054000000000002</v>
+        <v>-24.494</v>
       </c>
       <c r="D29">
-        <v>381.53399999999999</v>
+        <v>6.69</v>
       </c>
       <c r="E29">
-        <v>197.345</v>
+        <v>1.276</v>
       </c>
       <c r="F29">
-        <v>101.941</v>
+        <v>-18.353999999999999</v>
       </c>
       <c r="G29">
-        <v>1541.3219999999999</v>
+        <v>270.85399999999998</v>
       </c>
       <c r="H29">
-        <v>2374.3009999999999</v>
+        <v>282.68299999999999</v>
       </c>
       <c r="I29">
-        <v>69.933000000000007</v>
+        <v>6.4210000000000003</v>
       </c>
       <c r="J29">
-        <v>23.710999999999999</v>
+        <v>377.50299999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>319.935</v>
+        <v>33.213999999999999</v>
       </c>
       <c r="O29">
-        <v>616.55100000000004</v>
+        <v>424.15600000000001</v>
       </c>
       <c r="P29">
-        <v>23.710999999999999</v>
+        <v>377.50299999999999</v>
       </c>
       <c r="Q29">
-        <v>676.27499999999998</v>
+        <v>61.694000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1757.75</v>
+        <v>-141.47300000000001</v>
       </c>
       <c r="U29">
-        <v>1128.046</v>
+        <v>95.629000000000005</v>
       </c>
       <c r="V29">
-        <v>53.122999999999998</v>
+        <v>-24.027999999999999</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>653.99400000000003</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>3.4649999999999999</v>
+        <v>85.763999999999996</v>
       </c>
       <c r="AA29">
-        <v>36.054000000000002</v>
+        <v>-24.494</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-149.62899999999999</v>
+        <v>-21.800999999999998</v>
       </c>
       <c r="D30">
-        <v>444.15600000000001</v>
+        <v>9.7520000000000007</v>
       </c>
       <c r="E30">
-        <v>264.69900000000001</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="F30">
-        <v>-25.074000000000002</v>
+        <v>-22.885999999999999</v>
       </c>
       <c r="G30">
-        <v>1504.854</v>
+        <v>264.41199999999998</v>
       </c>
       <c r="H30">
-        <v>2302.5819999999999</v>
+        <v>275.69499999999999</v>
       </c>
       <c r="I30">
-        <v>67.671000000000006</v>
+        <v>7.806</v>
       </c>
       <c r="J30">
-        <v>16.608000000000001</v>
+        <v>386.55599999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>375.39600000000002</v>
+        <v>36.594999999999999</v>
       </c>
       <c r="O30">
-        <v>671.95299999999997</v>
+        <v>435.21199999999999</v>
       </c>
       <c r="P30">
-        <v>24.001000000000001</v>
+        <v>386.55599999999998</v>
       </c>
       <c r="Q30">
-        <v>-228.53800000000001</v>
+        <v>13.225</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>1208</v>
+        <v>196</v>
       </c>
       <c r="T30">
-        <v>1630.6289999999999</v>
+        <v>-159.517</v>
       </c>
       <c r="U30">
-        <v>899.50900000000001</v>
+        <v>108.854</v>
       </c>
       <c r="V30">
-        <v>-89.266999999999996</v>
+        <v>-27.544</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>3.7240000000000002</v>
+        <v>11.311999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-117.751</v>
+        <v>30.149000000000001</v>
       </c>
       <c r="AA30">
-        <v>-149.62899999999999</v>
+        <v>-21.800999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-41.14</v>
+        <v>-40.156999999999996</v>
       </c>
       <c r="D31">
-        <v>382.28199999999998</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="E31">
-        <v>218.79</v>
+        <v>0.84</v>
       </c>
       <c r="F31">
-        <v>61.073</v>
+        <v>-31.648</v>
       </c>
       <c r="G31">
-        <v>1469.5550000000001</v>
+        <v>227.595</v>
       </c>
       <c r="H31">
-        <v>2306.0120000000002</v>
+        <v>237.011</v>
       </c>
       <c r="I31">
-        <v>74.114999999999995</v>
+        <v>13.228</v>
       </c>
       <c r="J31">
-        <v>16.811</v>
+        <v>388.89699999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>381.072</v>
+        <v>34.304000000000002</v>
       </c>
       <c r="O31">
-        <v>677.96799999999996</v>
+        <v>434.05900000000003</v>
       </c>
       <c r="P31">
-        <v>24.271000000000001</v>
+        <v>388.89699999999999</v>
       </c>
       <c r="Q31">
-        <v>-5.0599999999999996</v>
+        <v>53.887</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1628.0440000000001</v>
+        <v>-197.048</v>
       </c>
       <c r="U31">
-        <v>894.42700000000002</v>
+        <v>162.74100000000001</v>
       </c>
       <c r="V31">
-        <v>20.838000000000001</v>
+        <v>-37.381999999999998</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2.5950000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-15.938000000000001</v>
+        <v>90.870999999999995</v>
       </c>
       <c r="AA31">
-        <v>-41.14</v>
+        <v>-40.156999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>52.393999999999998</v>
+        <v>-45.564</v>
       </c>
       <c r="D32">
-        <v>521.51599999999996</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E32">
-        <v>315.01</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F32">
-        <v>198.571</v>
+        <v>-37.518000000000001</v>
       </c>
       <c r="G32">
-        <v>1598.0840000000001</v>
+        <v>194.05500000000001</v>
       </c>
       <c r="H32">
-        <v>2397.1570000000002</v>
+        <v>204.73500000000001</v>
       </c>
       <c r="I32">
-        <v>75.558999999999997</v>
+        <v>13.481</v>
       </c>
       <c r="J32">
-        <v>17.015999999999998</v>
+        <v>391.279</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>368.23899999999998</v>
+        <v>41.651000000000003</v>
       </c>
       <c r="O32">
-        <v>664.23400000000004</v>
+        <v>441.93</v>
       </c>
       <c r="P32">
-        <v>24.57</v>
+        <v>391.279</v>
       </c>
       <c r="Q32">
-        <v>34.143000000000001</v>
+        <v>-28.029</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1732.923</v>
+        <v>-237.19499999999999</v>
       </c>
       <c r="U32">
-        <v>928.51700000000005</v>
+        <v>134.71199999999999</v>
       </c>
       <c r="V32">
-        <v>32.402999999999999</v>
+        <v>-32.518000000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>5.5620000000000003</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6.8689999999999998</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="AA32">
-        <v>52.393999999999998</v>
+        <v>-45.563000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>29.175999999999998</v>
+        <v>-44.793999999999997</v>
       </c>
       <c r="D33">
-        <v>449.68299999999999</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="E33">
-        <v>247.33600000000001</v>
+        <v>0.879</v>
       </c>
       <c r="F33">
-        <v>132.36099999999999</v>
+        <v>-35.887999999999998</v>
       </c>
       <c r="G33">
-        <v>1700.3589999999999</v>
+        <v>257.024</v>
       </c>
       <c r="H33">
-        <v>2519.9470000000001</v>
+        <v>264.71800000000002</v>
       </c>
       <c r="I33">
-        <v>95.477999999999994</v>
+        <v>13.465</v>
       </c>
       <c r="J33">
-        <v>17.224</v>
+        <v>393.702</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>422.48899999999998</v>
+        <v>40.82</v>
       </c>
       <c r="O33">
-        <v>717.048</v>
+        <v>442.09500000000003</v>
       </c>
       <c r="P33">
-        <v>24.872</v>
+        <v>393.702</v>
       </c>
       <c r="Q33">
-        <v>183.67099999999999</v>
+        <v>72.885000000000005</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1802.8989999999999</v>
+        <v>-177.37700000000001</v>
       </c>
       <c r="U33">
-        <v>1112.1790000000001</v>
+        <v>207.59700000000001</v>
       </c>
       <c r="V33">
-        <v>199.148</v>
+        <v>-38.747999999999998</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>2.4369999999999998</v>
+        <v>102.261</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>6.9450000000000003</v>
+        <v>9.5139999999999993</v>
       </c>
       <c r="AA33">
-        <v>29.175999999999998</v>
+        <v>-44.793999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>69.063000000000002</v>
+        <v>-48.405000000000001</v>
       </c>
       <c r="D34">
-        <v>528.40200000000004</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E34">
-        <v>306.89800000000002</v>
+        <v>1.05</v>
       </c>
       <c r="F34">
-        <v>197.798</v>
+        <v>-37.387999999999998</v>
       </c>
       <c r="G34">
-        <v>1832.2539999999999</v>
+        <v>205.494</v>
       </c>
       <c r="H34">
-        <v>2645.7620000000002</v>
+        <v>232.38800000000001</v>
       </c>
       <c r="I34">
-        <v>103.827</v>
+        <v>15.679</v>
       </c>
       <c r="J34">
-        <v>17.434000000000001</v>
+        <v>396.16699999999997</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>425.27699999999999</v>
+        <v>50.337000000000003</v>
       </c>
       <c r="O34">
-        <v>719.79499999999996</v>
+        <v>453.13799999999998</v>
       </c>
       <c r="P34">
-        <v>36.130000000000003</v>
+        <v>396.16699999999997</v>
       </c>
       <c r="Q34">
-        <v>51.798000000000002</v>
+        <v>-28.83</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>1367</v>
+        <v>212</v>
       </c>
       <c r="T34">
-        <v>1925.9670000000001</v>
+        <v>-220.75</v>
       </c>
       <c r="U34">
-        <v>1163.98</v>
+        <v>178.767</v>
       </c>
       <c r="V34">
-        <v>83.837999999999994</v>
+        <v>-32.212000000000003</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>4.0629999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-10.816000000000001</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="AA34">
-        <v>69.063000000000002</v>
+        <v>-48.405000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>102.312</v>
+        <v>-40.036000000000001</v>
       </c>
       <c r="D35">
-        <v>497.85700000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E35">
-        <v>243.58099999999999</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="F35">
-        <v>204.72399999999999</v>
+        <v>-28.916</v>
       </c>
       <c r="G35">
-        <v>1904.5</v>
+        <v>165.36500000000001</v>
       </c>
       <c r="H35">
-        <v>2754.1610000000001</v>
+        <v>189.63499999999999</v>
       </c>
       <c r="I35">
-        <v>70.363</v>
+        <v>15.084</v>
       </c>
       <c r="J35">
-        <v>17.646999999999998</v>
+        <v>398.67399999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.19500000000000001</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>364.51499999999999</v>
+        <v>42.097999999999999</v>
       </c>
       <c r="O35">
-        <v>668.59400000000005</v>
+        <v>446.38600000000002</v>
       </c>
       <c r="P35">
-        <v>42.058999999999997</v>
+        <v>398.67399999999998</v>
       </c>
       <c r="Q35">
-        <v>135.71299999999999</v>
+        <v>-39.668999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2085.567</v>
+        <v>-256.75099999999998</v>
       </c>
       <c r="U35">
-        <v>1299.704</v>
+        <v>139.09800000000001</v>
       </c>
       <c r="V35">
-        <v>155.66300000000001</v>
+        <v>-42.734999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>4.4870000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>13.352</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-6.2960000000000003</v>
+        <v>3.161</v>
       </c>
       <c r="AA35">
-        <v>102.312</v>
+        <v>-40.036000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>105.318</v>
+        <v>-40.034999999999997</v>
       </c>
       <c r="D36">
-        <v>529.93200000000002</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="E36">
-        <v>302.38</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="F36">
-        <v>211.16300000000001</v>
+        <v>-28.245999999999999</v>
       </c>
       <c r="G36">
-        <v>2058.625</v>
+        <v>146.71799999999999</v>
       </c>
       <c r="H36">
-        <v>2947.6329999999998</v>
+        <v>159.01599999999999</v>
       </c>
       <c r="I36">
-        <v>66.183999999999997</v>
+        <v>15.84</v>
       </c>
       <c r="J36">
-        <v>17.861999999999998</v>
+        <v>401.22500000000002</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>367.10500000000002</v>
+        <v>45.621000000000002</v>
       </c>
       <c r="O36">
-        <v>700.44200000000001</v>
+        <v>450.44600000000003</v>
       </c>
       <c r="P36">
-        <v>74.412000000000006</v>
+        <v>401.22500000000002</v>
       </c>
       <c r="Q36">
-        <v>116.539</v>
+        <v>-24.809000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2247.1909999999998</v>
+        <v>-291.43</v>
       </c>
       <c r="U36">
-        <v>1416.2239999999999</v>
+        <v>114.289</v>
       </c>
       <c r="V36">
-        <v>152.96</v>
+        <v>-29.652000000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>9.01</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="Y36">
-        <v>44.927</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>2.1469999999999998</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="AA36">
-        <v>105.318</v>
+        <v>-40.034999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>128.27099999999999</v>
+        <v>-43.356999999999999</v>
       </c>
       <c r="D37">
-        <v>551.58100000000002</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E37">
-        <v>275.51600000000002</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="F37">
-        <v>240.20500000000001</v>
+        <v>-25.596</v>
       </c>
       <c r="G37">
-        <v>2319.5949999999998</v>
+        <v>402.65699999999998</v>
       </c>
       <c r="H37">
-        <v>3214.8180000000002</v>
+        <v>472.81599999999997</v>
       </c>
       <c r="I37">
-        <v>95.376000000000005</v>
+        <v>14.176</v>
       </c>
       <c r="J37">
-        <v>18.079999999999998</v>
+        <v>477.41899999999998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>461.68299999999999</v>
+        <v>44.276000000000003</v>
       </c>
       <c r="O37">
-        <v>792.29100000000005</v>
+        <v>672.17200000000003</v>
       </c>
       <c r="P37">
-        <v>74.272999999999996</v>
+        <v>477.41899999999998</v>
       </c>
       <c r="Q37">
-        <v>285.77999999999997</v>
+        <v>253.18899999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2422.527</v>
+        <v>-199.35599999999999</v>
       </c>
       <c r="U37">
-        <v>1702.0229999999999</v>
+        <v>367.47800000000001</v>
       </c>
       <c r="V37">
-        <v>270.41500000000002</v>
+        <v>-33.840000000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2.8940000000000001</v>
+        <v>281.03399999999999</v>
       </c>
       <c r="Y37">
-        <v>45.058</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-4.5279999999999996</v>
+        <v>6.1289999999999996</v>
       </c>
       <c r="AA37">
-        <v>128.27099999999999</v>
+        <v>-43.356999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>111.005</v>
+        <v>-88.441999999999993</v>
       </c>
       <c r="D38">
-        <v>579.38900000000001</v>
+        <v>6.8659999999999997</v>
       </c>
       <c r="E38">
-        <v>304.90899999999999</v>
+        <v>163.661</v>
       </c>
       <c r="F38">
-        <v>234.30699999999999</v>
+        <v>-27.417000000000002</v>
       </c>
       <c r="G38">
-        <v>2481.4879999999998</v>
+        <v>656.05499999999995</v>
       </c>
       <c r="H38">
-        <v>3426.75</v>
+        <v>712.39</v>
       </c>
       <c r="I38">
-        <v>83.647000000000006</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>443.13799999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>513.34</v>
+        <v>132.82599999999999</v>
       </c>
       <c r="O38">
-        <v>828.34400000000005</v>
+        <v>814.774</v>
       </c>
       <c r="P38">
-        <v>72.078999999999994</v>
+        <v>443.13799999999998</v>
       </c>
       <c r="Q38">
-        <v>130.68899999999999</v>
+        <v>82.346000000000004</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>1456</v>
+        <v>221</v>
       </c>
       <c r="T38">
-        <v>2598.4059999999999</v>
+        <v>-102.384</v>
       </c>
       <c r="U38">
-        <v>1832.684</v>
+        <v>449.82400000000001</v>
       </c>
       <c r="V38">
-        <v>131.61799999999999</v>
+        <v>118.58499999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>29.32</v>
+        <v>-39.673999999999999</v>
       </c>
       <c r="Y38">
-        <v>43.771999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.71299999999999997</v>
+        <v>3.516</v>
       </c>
       <c r="AA38">
-        <v>111.005</v>
+        <v>-88.441999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-720.64200000000005</v>
+        <v>-35.728999999999999</v>
       </c>
       <c r="D39">
-        <v>568.50699999999995</v>
+        <v>17.288</v>
       </c>
       <c r="E39">
-        <v>351.42200000000003</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="F39">
-        <v>-546.22900000000004</v>
+        <v>-14.151</v>
       </c>
       <c r="G39">
-        <v>1716.1690000000001</v>
+        <v>450.80700000000002</v>
       </c>
       <c r="H39">
-        <v>2752.422</v>
+        <v>502.66300000000001</v>
       </c>
       <c r="I39">
-        <v>60.936999999999998</v>
+        <v>13.304</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>277.7</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.187</v>
+        <v>-158.64400000000001</v>
       </c>
       <c r="N39">
-        <v>503.41199999999998</v>
+        <v>117.944</v>
       </c>
       <c r="O39">
-        <v>814.70100000000002</v>
+        <v>617.07600000000002</v>
       </c>
       <c r="P39">
-        <v>71.564999999999998</v>
+        <v>277.7</v>
       </c>
       <c r="Q39">
-        <v>-787.91800000000001</v>
+        <v>-45.078000000000003</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1937.721</v>
+        <v>-114.413</v>
       </c>
       <c r="U39">
-        <v>1043.241</v>
+        <v>404.74599999999998</v>
       </c>
       <c r="V39">
-        <v>-683.41700000000003</v>
+        <v>102.82299999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2.4990000000000001</v>
+        <v>-154.417</v>
       </c>
       <c r="Y39">
-        <v>43.11</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-69.295000000000002</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="AA39">
-        <v>-720.64200000000005</v>
+        <v>-35.728999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>290.298</v>
+        <v>3.044</v>
       </c>
       <c r="D40">
-        <v>688.04300000000001</v>
+        <v>49.847000000000001</v>
       </c>
       <c r="E40">
-        <v>420.15</v>
+        <v>6.36</v>
       </c>
       <c r="F40">
-        <v>354.82499999999999</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="G40">
-        <v>2077.625</v>
+        <v>451.29300000000001</v>
       </c>
       <c r="H40">
-        <v>3212.3209999999999</v>
+        <v>493.68099999999998</v>
       </c>
       <c r="I40">
-        <v>90.909000000000006</v>
+        <v>9.1579999999999995</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>282.82499999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>556.51300000000003</v>
+        <v>110.944</v>
       </c>
       <c r="O40">
-        <v>867.71699999999998</v>
+        <v>598.46400000000006</v>
       </c>
       <c r="P40">
-        <v>75.709000000000003</v>
+        <v>282.82499999999999</v>
       </c>
       <c r="Q40">
-        <v>283.524</v>
+        <v>9.3420000000000005</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2344.6039999999998</v>
+        <v>-104.783</v>
       </c>
       <c r="U40">
-        <v>1326.73</v>
+        <v>414.08800000000002</v>
       </c>
       <c r="V40">
-        <v>269.38200000000001</v>
+        <v>-2.766</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>56.406999999999996</v>
+        <v>2.4340000000000002</v>
       </c>
       <c r="Y40">
-        <v>45.872999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.60199999999999998</v>
+        <v>10.272</v>
       </c>
       <c r="AA40">
-        <v>290.298</v>
+        <v>3.044</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-15.202999999999999</v>
+        <v>-31.702000000000002</v>
       </c>
       <c r="D41">
-        <v>620.64300000000003</v>
+        <v>16.872</v>
       </c>
       <c r="E41">
-        <v>354.28199999999998</v>
+        <v>4.7350000000000003</v>
       </c>
       <c r="F41">
-        <v>133.22300000000001</v>
+        <v>-13.737</v>
       </c>
       <c r="G41">
-        <v>2159.4250000000002</v>
+        <v>422.54500000000002</v>
       </c>
       <c r="H41">
-        <v>3307.43</v>
+        <v>464.64</v>
       </c>
       <c r="I41">
-        <v>122.512</v>
+        <v>7.75</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>288.06799999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>606.202</v>
+        <v>117.52200000000001</v>
       </c>
       <c r="O41">
-        <v>916.59699999999998</v>
+        <v>593.548</v>
       </c>
       <c r="P41">
-        <v>70.863</v>
+        <v>288.06799999999998</v>
       </c>
       <c r="Q41">
-        <v>171.125</v>
+        <v>-25.283999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2390.8330000000001</v>
+        <v>-128.90799999999999</v>
       </c>
       <c r="U41">
-        <v>1497.7750000000001</v>
+        <v>388.80399999999997</v>
       </c>
       <c r="V41">
-        <v>182.11500000000001</v>
+        <v>-29.521999999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.93100000000000005</v>
+        <v>3.383</v>
       </c>
       <c r="Y41">
-        <v>46.271999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>38.368000000000002</v>
+        <v>1.321</v>
       </c>
       <c r="AA41">
-        <v>-15.202999999999999</v>
+        <v>-31.701000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>32.540999999999997</v>
+      </c>
+      <c r="D42">
+        <v>85.87</v>
+      </c>
+      <c r="E42">
+        <v>1.101</v>
+      </c>
+      <c r="F42">
+        <v>53.095999999999997</v>
+      </c>
+      <c r="G42">
+        <v>455.45400000000001</v>
+      </c>
+      <c r="H42">
+        <v>489.58100000000002</v>
+      </c>
+      <c r="I42">
+        <v>10.773</v>
+      </c>
+      <c r="J42">
+        <v>293.43200000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>113.57299999999999</v>
+      </c>
+      <c r="O42">
+        <v>578.22500000000002</v>
+      </c>
+      <c r="P42">
+        <v>293.43200000000002</v>
+      </c>
+      <c r="Q42">
+        <v>29.108000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>247</v>
+      </c>
+      <c r="T42">
+        <v>-88.644000000000005</v>
+      </c>
+      <c r="U42">
+        <v>417.91199999999998</v>
+      </c>
+      <c r="V42">
+        <v>27.402999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>3.5459999999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>32.540999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-26.512</v>
+      </c>
+      <c r="D43">
+        <v>31.972999999999999</v>
+      </c>
+      <c r="E43">
+        <v>15.279</v>
+      </c>
+      <c r="F43">
+        <v>-4.3090000000000002</v>
+      </c>
+      <c r="G43">
+        <v>425.96800000000002</v>
+      </c>
+      <c r="H43">
+        <v>459.60599999999999</v>
+      </c>
+      <c r="I43">
+        <v>7.7910000000000004</v>
+      </c>
+      <c r="J43">
+        <v>298.91899999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>110.182</v>
+      </c>
+      <c r="O43">
+        <v>563.58399999999995</v>
+      </c>
+      <c r="P43">
+        <v>298.91899999999998</v>
+      </c>
+      <c r="Q43">
+        <v>-40.069000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-103.97799999999999</v>
+      </c>
+      <c r="U43">
+        <v>377.84300000000002</v>
+      </c>
+      <c r="V43">
+        <v>-44.222000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AA43">
+        <v>-26.512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-51.871000000000002</v>
+      </c>
+      <c r="D44">
+        <v>16.811</v>
+      </c>
+      <c r="E44">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F44">
+        <v>-29.236000000000001</v>
+      </c>
+      <c r="G44">
+        <v>391.923</v>
+      </c>
+      <c r="H44">
+        <v>416.66300000000001</v>
+      </c>
+      <c r="I44">
+        <v>8.7880000000000003</v>
+      </c>
+      <c r="J44">
+        <v>304.53399999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>110.667</v>
+      </c>
+      <c r="O44">
+        <v>552.947</v>
+      </c>
+      <c r="P44">
+        <v>304.53399999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-18.768999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-136.28399999999999</v>
+      </c>
+      <c r="U44">
+        <v>359.07400000000001</v>
+      </c>
+      <c r="V44">
+        <v>-30.736000000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>12.512</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.53</v>
+      </c>
+      <c r="AA44">
+        <v>-51.87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-53.078000000000003</v>
+      </c>
+      <c r="D45">
+        <v>16.782</v>
+      </c>
+      <c r="E45">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="F45">
+        <v>-27.821999999999999</v>
+      </c>
+      <c r="G45">
+        <v>346.41800000000001</v>
+      </c>
+      <c r="H45">
+        <v>371.22399999999999</v>
+      </c>
+      <c r="I45">
+        <v>11.038</v>
+      </c>
+      <c r="J45">
+        <v>310.27699999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>120.95699999999999</v>
+      </c>
+      <c r="O45">
+        <v>552.24400000000003</v>
+      </c>
+      <c r="P45">
+        <v>310.27699999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-46.746000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>-181.02</v>
+      </c>
+      <c r="U45">
+        <v>312.32799999999997</v>
+      </c>
+      <c r="V45">
+        <v>-46.978000000000002</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1.073</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>-53.078000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-55.079000000000001</v>
+      </c>
+      <c r="D46">
+        <v>28.89</v>
+      </c>
+      <c r="E46">
+        <v>4.1150000000000002</v>
+      </c>
+      <c r="F46">
+        <v>-22.986999999999998</v>
+      </c>
+      <c r="G46">
+        <v>310.77800000000002</v>
+      </c>
+      <c r="H46">
+        <v>328.96199999999999</v>
+      </c>
+      <c r="I46">
+        <v>14.939</v>
+      </c>
+      <c r="J46">
+        <v>316.15300000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>135.614</v>
+      </c>
+      <c r="O46">
+        <v>556.03899999999999</v>
+      </c>
+      <c r="P46">
+        <v>316.15300000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-39.164000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>368</v>
+      </c>
+      <c r="T46">
+        <v>-227.077</v>
+      </c>
+      <c r="U46">
+        <v>273.16399999999999</v>
+      </c>
+      <c r="V46">
+        <v>-39.779000000000003</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1.754</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>-55.079000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-45.426000000000002</v>
+      </c>
+      <c r="D47">
+        <v>36.179000000000002</v>
+      </c>
+      <c r="E47">
+        <v>11.61</v>
+      </c>
+      <c r="F47">
+        <v>-12.792</v>
+      </c>
+      <c r="G47">
+        <v>276.16199999999998</v>
+      </c>
+      <c r="H47">
+        <v>293.59300000000002</v>
+      </c>
+      <c r="I47">
+        <v>13.173999999999999</v>
+      </c>
+      <c r="J47">
+        <v>312.61599999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>142.29900000000001</v>
+      </c>
+      <c r="O47">
+        <v>542.45000000000005</v>
+      </c>
+      <c r="P47">
+        <v>322.16199999999998</v>
+      </c>
+      <c r="Q47">
+        <v>-41.308999999999997</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-248.857</v>
+      </c>
+      <c r="U47">
+        <v>231.85499999999999</v>
+      </c>
+      <c r="V47">
+        <v>-54.401000000000003</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>13.420999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-45.426000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>4.0369999999999999</v>
+      </c>
+      <c r="D48">
+        <v>86.542000000000002</v>
+      </c>
+      <c r="E48">
+        <v>13.541</v>
+      </c>
+      <c r="F48">
+        <v>34.938000000000002</v>
+      </c>
+      <c r="G48">
+        <v>294.15800000000002</v>
+      </c>
+      <c r="H48">
+        <v>311.971</v>
+      </c>
+      <c r="I48">
+        <v>11.102</v>
+      </c>
+      <c r="J48">
+        <v>318.63</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>139.73099999999999</v>
+      </c>
+      <c r="O48">
+        <v>529.15899999999999</v>
+      </c>
+      <c r="P48">
+        <v>328.31</v>
+      </c>
+      <c r="Q48">
+        <v>25.707999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-217.18799999999999</v>
+      </c>
+      <c r="U48">
+        <v>257.56299999999999</v>
+      </c>
+      <c r="V48">
+        <v>8.7240000000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>17.893999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AA48">
+        <v>4.0369999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-21.71</v>
+      </c>
+      <c r="D49">
+        <v>60.491999999999997</v>
+      </c>
+      <c r="E49">
+        <v>13.84</v>
+      </c>
+      <c r="F49">
+        <v>10.382</v>
+      </c>
+      <c r="G49">
+        <v>278.72800000000001</v>
+      </c>
+      <c r="H49">
+        <v>296.53500000000003</v>
+      </c>
+      <c r="I49">
+        <v>12.763999999999999</v>
+      </c>
+      <c r="J49">
+        <v>324.78300000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>137.64099999999999</v>
+      </c>
+      <c r="O49">
+        <v>516.48500000000001</v>
+      </c>
+      <c r="P49">
+        <v>334.59899999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-18.48</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-219.95</v>
+      </c>
+      <c r="U49">
+        <v>239.083</v>
+      </c>
+      <c r="V49">
+        <v>-27.145</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.157</v>
+      </c>
+      <c r="AA49">
+        <v>-21.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>18.779</v>
+      </c>
+      <c r="D50">
+        <v>113.846</v>
+      </c>
+      <c r="E50">
+        <v>68.850999999999999</v>
+      </c>
+      <c r="F50">
+        <v>53.982999999999997</v>
+      </c>
+      <c r="G50">
+        <v>309.51400000000001</v>
+      </c>
+      <c r="H50">
+        <v>330.41899999999998</v>
+      </c>
+      <c r="I50">
+        <v>13.961</v>
+      </c>
+      <c r="J50">
+        <v>331.07600000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>136.07400000000001</v>
+      </c>
+      <c r="O50">
+        <v>505.37599999999998</v>
+      </c>
+      <c r="P50">
+        <v>331.07600000000002</v>
+      </c>
+      <c r="Q50">
+        <v>-15.026</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>413</v>
+      </c>
+      <c r="T50">
+        <v>-174.95699999999999</v>
+      </c>
+      <c r="U50">
+        <v>224.05699999999999</v>
+      </c>
+      <c r="V50">
+        <v>-22.007999999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>7.4820000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.43</v>
+      </c>
+      <c r="AA50">
+        <v>18.779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-15.669</v>
+      </c>
+      <c r="D51">
+        <v>71.076999999999998</v>
+      </c>
+      <c r="E51">
+        <v>27.140999999999998</v>
+      </c>
+      <c r="F51">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="G51">
+        <v>309.113</v>
+      </c>
+      <c r="H51">
+        <v>330.28199999999998</v>
+      </c>
+      <c r="I51">
+        <v>15.515000000000001</v>
+      </c>
+      <c r="J51">
+        <v>337.51299999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>121.283</v>
+      </c>
+      <c r="O51">
+        <v>493.80799999999999</v>
+      </c>
+      <c r="P51">
+        <v>337.51299999999998</v>
+      </c>
+      <c r="Q51">
+        <v>41.756999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-163.52600000000001</v>
+      </c>
+      <c r="U51">
+        <v>265.81400000000002</v>
+      </c>
+      <c r="V51">
+        <v>24.738</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>17.777000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>-15.669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-2.5710000000000002</v>
+      </c>
+      <c r="D52">
+        <v>101.675</v>
+      </c>
+      <c r="E52">
+        <v>26.422000000000001</v>
+      </c>
+      <c r="F52">
+        <v>40.567999999999998</v>
+      </c>
+      <c r="G52">
+        <v>313.36900000000003</v>
+      </c>
+      <c r="H52">
+        <v>334.21899999999999</v>
+      </c>
+      <c r="I52">
+        <v>13.471</v>
+      </c>
+      <c r="J52">
+        <v>223.81700000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>102.958</v>
+      </c>
+      <c r="O52">
+        <v>362.005</v>
+      </c>
+      <c r="P52">
+        <v>223.81700000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-7.6120000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-27.786000000000001</v>
+      </c>
+      <c r="U52">
+        <v>258.202</v>
+      </c>
+      <c r="V52">
+        <v>8.0809999999999995</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-15.148999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>-2.5710000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-22.036000000000001</v>
+      </c>
+      <c r="D53">
+        <v>85.123000000000005</v>
+      </c>
+      <c r="E53">
+        <v>31.396999999999998</v>
+      </c>
+      <c r="F53">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="G53">
+        <v>333.74299999999999</v>
+      </c>
+      <c r="H53">
+        <v>357.4</v>
+      </c>
+      <c r="I53">
+        <v>18.212</v>
+      </c>
+      <c r="J53">
+        <v>187.136</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>109.498</v>
+      </c>
+      <c r="O53">
+        <v>328.60899999999998</v>
+      </c>
+      <c r="P53">
+        <v>187.136</v>
+      </c>
+      <c r="Q53">
+        <v>13.92</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>28.791</v>
+      </c>
+      <c r="U53">
+        <v>272.12200000000001</v>
+      </c>
+      <c r="V53">
+        <v>-11.95</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>26.873000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-0.214</v>
+      </c>
+      <c r="AA53">
+        <v>-22.036999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-42.871000000000002</v>
+      </c>
+      <c r="D54">
+        <v>97.072000000000003</v>
+      </c>
+      <c r="E54">
+        <v>33.673999999999999</v>
+      </c>
+      <c r="F54">
+        <v>21.885999999999999</v>
+      </c>
+      <c r="G54">
+        <v>555.79899999999998</v>
+      </c>
+      <c r="H54">
+        <v>629.56799999999998</v>
+      </c>
+      <c r="I54">
+        <v>19.102</v>
+      </c>
+      <c r="J54">
+        <v>661.56700000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>108.042</v>
+      </c>
+      <c r="O54">
+        <v>822.67600000000004</v>
+      </c>
+      <c r="P54">
+        <v>661.56700000000001</v>
+      </c>
+      <c r="Q54">
+        <v>199.30699999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>481</v>
+      </c>
+      <c r="T54">
+        <v>-193.108</v>
+      </c>
+      <c r="U54">
+        <v>471.42899999999997</v>
+      </c>
+      <c r="V54">
+        <v>-11.689</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>230.93</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-17.902999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>-42.871000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-33.957000000000001</v>
+      </c>
+      <c r="D55">
+        <v>89.792000000000002</v>
+      </c>
+      <c r="E55">
+        <v>45.293999999999997</v>
+      </c>
+      <c r="F55">
+        <v>14.039</v>
+      </c>
+      <c r="G55">
+        <v>581.16999999999996</v>
+      </c>
+      <c r="H55">
+        <v>666.82600000000002</v>
+      </c>
+      <c r="I55">
+        <v>17.95</v>
+      </c>
+      <c r="J55">
+        <v>665.22199999999998</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>106.944</v>
+      </c>
+      <c r="O55">
+        <v>829.24800000000005</v>
+      </c>
+      <c r="P55">
+        <v>695.12199999999996</v>
+      </c>
+      <c r="Q55">
+        <v>-34.844000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-162.422</v>
+      </c>
+      <c r="U55">
+        <v>436.58499999999998</v>
+      </c>
+      <c r="V55">
+        <v>-31.693999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>44.536999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>29.9</v>
+      </c>
+      <c r="Z55">
+        <v>-45.024000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>-33.957000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-36.872999999999998</v>
+      </c>
+      <c r="D56">
+        <v>99.581999999999994</v>
+      </c>
+      <c r="E56">
+        <v>46.305</v>
+      </c>
+      <c r="F56">
+        <v>14.712</v>
+      </c>
+      <c r="G56">
+        <v>577.14499999999998</v>
+      </c>
+      <c r="H56">
+        <v>679.10699999999997</v>
+      </c>
+      <c r="I56">
+        <v>27.251000000000001</v>
+      </c>
+      <c r="J56">
+        <v>673.31500000000005</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>112.547</v>
+      </c>
+      <c r="O56">
+        <v>850.10500000000002</v>
+      </c>
+      <c r="P56">
+        <v>712.21500000000003</v>
+      </c>
+      <c r="Q56">
+        <v>-30.321000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>-170.99799999999999</v>
+      </c>
+      <c r="U56">
+        <v>406.26400000000001</v>
+      </c>
+      <c r="V56">
+        <v>-14.557</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>12.779</v>
+      </c>
+      <c r="Y56">
+        <v>38.9</v>
+      </c>
+      <c r="Z56">
+        <v>-19.844000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>-36.872999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>59.292000000000002</v>
+      </c>
+      <c r="D57">
+        <v>198.14699999999999</v>
+      </c>
+      <c r="E57">
+        <v>108.899</v>
+      </c>
+      <c r="F57">
+        <v>109.389</v>
+      </c>
+      <c r="G57">
+        <v>662.61400000000003</v>
+      </c>
+      <c r="H57">
+        <v>785.26499999999999</v>
+      </c>
+      <c r="I57">
+        <v>26.605</v>
+      </c>
+      <c r="J57">
+        <v>681.31299999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>124.66</v>
+      </c>
+      <c r="O57">
+        <v>874.85599999999999</v>
+      </c>
+      <c r="P57">
+        <v>730.21299999999997</v>
+      </c>
+      <c r="Q57">
+        <v>-24.26</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-89.590999999999994</v>
+      </c>
+      <c r="U57">
+        <v>382.00400000000002</v>
+      </c>
+      <c r="V57">
+        <v>27.786999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>6.6440000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>48.9</v>
+      </c>
+      <c r="Z57">
+        <v>-48.031999999999996</v>
+      </c>
+      <c r="AA57">
+        <v>59.292999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-36.942999999999998</v>
+      </c>
+      <c r="D58">
+        <v>123.973</v>
+      </c>
+      <c r="E58">
+        <v>57.633000000000003</v>
+      </c>
+      <c r="F58">
+        <v>22.827999999999999</v>
+      </c>
+      <c r="G58">
+        <v>679.57299999999998</v>
+      </c>
+      <c r="H58">
+        <v>796.47699999999998</v>
+      </c>
+      <c r="I58">
+        <v>24.462</v>
+      </c>
+      <c r="J58">
+        <v>589.98099999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>221.06100000000001</v>
+      </c>
+      <c r="O58">
+        <v>878.10500000000002</v>
+      </c>
+      <c r="P58">
+        <v>675.16700000000003</v>
+      </c>
+      <c r="Q58">
+        <v>70.293000000000006</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>588</v>
+      </c>
+      <c r="T58">
+        <v>-81.628</v>
+      </c>
+      <c r="U58">
+        <v>452.29700000000003</v>
+      </c>
+      <c r="V58">
+        <v>44.72</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>29.097000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>-36.942999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-18.359000000000002</v>
+      </c>
+      <c r="D59">
+        <v>159.27500000000001</v>
+      </c>
+      <c r="E59">
+        <v>69.103999999999999</v>
+      </c>
+      <c r="F59">
+        <v>37.936</v>
+      </c>
+      <c r="G59">
+        <v>692.14499999999998</v>
+      </c>
+      <c r="H59">
+        <v>862.62400000000002</v>
+      </c>
+      <c r="I59">
+        <v>26.585999999999999</v>
+      </c>
+      <c r="J59">
+        <v>610.21</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="N59">
+        <v>225.595</v>
+      </c>
+      <c r="O59">
+        <v>904.03700000000003</v>
+      </c>
+      <c r="P59">
+        <v>697.54700000000003</v>
+      </c>
+      <c r="Q59">
+        <v>-30.475000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-41.412999999999997</v>
+      </c>
+      <c r="U59">
+        <v>421.822</v>
+      </c>
+      <c r="V59">
+        <v>-4.5860000000000003</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>32.686</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-55.021999999999998</v>
+      </c>
+      <c r="AA59">
+        <v>-18.359000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>9.2959999999999994</v>
+      </c>
+      <c r="D60">
+        <v>162.98400000000001</v>
+      </c>
+      <c r="E60">
+        <v>74.622</v>
+      </c>
+      <c r="F60">
+        <v>44.284999999999997</v>
+      </c>
+      <c r="G60">
+        <v>732.99</v>
+      </c>
+      <c r="H60">
+        <v>930.33699999999999</v>
+      </c>
+      <c r="I60">
+        <v>29.161999999999999</v>
+      </c>
+      <c r="J60">
+        <v>617.02499999999998</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>192.47200000000001</v>
+      </c>
+      <c r="O60">
+        <v>875.16300000000001</v>
+      </c>
+      <c r="P60">
+        <v>659.96500000000003</v>
+      </c>
+      <c r="Q60">
+        <v>17.859000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>55.173999999999999</v>
+      </c>
+      <c r="U60">
+        <v>439.68099999999998</v>
+      </c>
+      <c r="V60">
+        <v>13.39</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>31.16</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-24.495000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>9.2940000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-39.582000000000001</v>
+      </c>
+      <c r="D61">
+        <v>187.61099999999999</v>
+      </c>
+      <c r="E61">
+        <v>86.665999999999997</v>
+      </c>
+      <c r="F61">
+        <v>47.497999999999998</v>
+      </c>
+      <c r="G61">
+        <v>757.91399999999999</v>
+      </c>
+      <c r="H61">
+        <v>931.93200000000002</v>
+      </c>
+      <c r="I61">
+        <v>27.366</v>
+      </c>
+      <c r="J61">
+        <v>623.928</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>155.82300000000001</v>
+      </c>
+      <c r="O61">
+        <v>843.19500000000005</v>
+      </c>
+      <c r="P61">
+        <v>623.93299999999999</v>
+      </c>
+      <c r="Q61">
+        <v>6.12</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>88.736999999999995</v>
+      </c>
+      <c r="U61">
+        <v>445.80099999999999</v>
+      </c>
+      <c r="V61">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>13.612</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-1.857</v>
+      </c>
+      <c r="AA61">
+        <v>-39.582000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>55.176000000000002</v>
+      </c>
+      <c r="D62">
+        <v>243.881</v>
+      </c>
+      <c r="E62">
+        <v>114.15</v>
+      </c>
+      <c r="F62">
+        <v>117.545</v>
+      </c>
+      <c r="G62">
+        <v>842.375</v>
+      </c>
+      <c r="H62">
+        <v>1007.44</v>
+      </c>
+      <c r="I62">
+        <v>30.085000000000001</v>
+      </c>
+      <c r="J62">
+        <v>619.89300000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>168.00700000000001</v>
+      </c>
+      <c r="O62">
+        <v>836.28499999999997</v>
+      </c>
+      <c r="P62">
+        <v>619.89300000000003</v>
+      </c>
+      <c r="Q62">
+        <v>75.638000000000005</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>692</v>
+      </c>
+      <c r="T62">
+        <v>171.155</v>
+      </c>
+      <c r="U62">
+        <v>521.43899999999996</v>
+      </c>
+      <c r="V62">
+        <v>70.009</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>10.157999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>2.367</v>
+      </c>
+      <c r="AA62">
+        <v>55.176000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="D63">
+        <v>263.464</v>
+      </c>
+      <c r="E63">
+        <v>101.18</v>
+      </c>
+      <c r="F63">
+        <v>100.63500000000001</v>
+      </c>
+      <c r="G63">
+        <v>935.58100000000002</v>
+      </c>
+      <c r="H63">
+        <v>1103.942</v>
+      </c>
+      <c r="I63">
+        <v>31.899000000000001</v>
+      </c>
+      <c r="J63">
+        <v>627.64200000000005</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="N63">
+        <v>200.31899999999999</v>
+      </c>
+      <c r="O63">
+        <v>876.19399999999996</v>
+      </c>
+      <c r="P63">
+        <v>627.64200000000005</v>
+      </c>
+      <c r="Q63">
+        <v>136.17599999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>227.74799999999999</v>
+      </c>
+      <c r="U63">
+        <v>657.61500000000001</v>
+      </c>
+      <c r="V63">
+        <v>97.534999999999997</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>34.319000000000003</v>
+      </c>
+      <c r="AA63">
+        <v>24.047000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>34.424999999999997</v>
+      </c>
+      <c r="D64">
+        <v>246.28800000000001</v>
+      </c>
+      <c r="E64">
+        <v>129.286</v>
+      </c>
+      <c r="F64">
+        <v>113.652</v>
+      </c>
+      <c r="G64">
+        <v>792.13</v>
+      </c>
+      <c r="H64">
+        <v>1417.9749999999999</v>
+      </c>
+      <c r="I64">
+        <v>40.723999999999997</v>
+      </c>
+      <c r="J64">
+        <v>635.49099999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>198.98599999999999</v>
+      </c>
+      <c r="O64">
+        <v>1120.912</v>
+      </c>
+      <c r="P64">
+        <v>635.49099999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-169.96100000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>900</v>
+      </c>
+      <c r="T64">
+        <v>297.06299999999999</v>
+      </c>
+      <c r="U64">
+        <v>487.654</v>
+      </c>
+      <c r="V64">
+        <v>17.571999999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>27.763000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>11.778</v>
+      </c>
+      <c r="AA64">
+        <v>34.424999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>36.877000000000002</v>
+      </c>
+      <c r="D65">
+        <v>269.46899999999999</v>
+      </c>
+      <c r="E65">
+        <v>131.423</v>
+      </c>
+      <c r="F65">
+        <v>106.08</v>
+      </c>
+      <c r="G65">
+        <v>886.66</v>
+      </c>
+      <c r="H65">
+        <v>1544.1949999999999</v>
+      </c>
+      <c r="I65">
+        <v>57.524000000000001</v>
+      </c>
+      <c r="J65">
+        <v>643.43399999999997</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>240.54499999999999</v>
+      </c>
+      <c r="O65">
+        <v>1174.2090000000001</v>
+      </c>
+      <c r="P65">
+        <v>643.43399999999997</v>
+      </c>
+      <c r="Q65">
+        <v>92.444999999999993</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>900</v>
+      </c>
+      <c r="T65">
+        <v>369.98599999999999</v>
+      </c>
+      <c r="U65">
+        <v>580.09900000000005</v>
+      </c>
+      <c r="V65">
+        <v>95.271000000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="AA65">
+        <v>36.877000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="D66">
+        <v>326.49799999999999</v>
+      </c>
+      <c r="E66">
+        <v>148.15799999999999</v>
+      </c>
+      <c r="F66">
+        <v>145.303</v>
+      </c>
+      <c r="G66">
+        <v>994.178</v>
+      </c>
+      <c r="H66">
+        <v>1638.597</v>
+      </c>
+      <c r="I66">
+        <v>75.599000000000004</v>
+      </c>
+      <c r="J66">
+        <v>651.48099999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>273.50099999999998</v>
+      </c>
+      <c r="O66">
+        <v>1219.1300000000001</v>
+      </c>
+      <c r="P66">
+        <v>651.48099999999999</v>
+      </c>
+      <c r="Q66">
+        <v>72.244</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>980</v>
+      </c>
+      <c r="T66">
+        <v>419.46699999999998</v>
+      </c>
+      <c r="U66">
+        <v>652.34299999999996</v>
+      </c>
+      <c r="V66">
+        <v>94.378</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>13.872</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-20.248999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>8.8729999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-187.083</v>
+      </c>
+      <c r="D67">
+        <v>384.08199999999999</v>
+      </c>
+      <c r="E67">
+        <v>244.375</v>
+      </c>
+      <c r="F67">
+        <v>-38.661999999999999</v>
+      </c>
+      <c r="G67">
+        <v>819.17499999999995</v>
+      </c>
+      <c r="H67">
+        <v>1607.347</v>
+      </c>
+      <c r="I67">
+        <v>86.326999999999998</v>
+      </c>
+      <c r="J67">
+        <v>41.603999999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>304.71600000000001</v>
+      </c>
+      <c r="O67">
+        <v>641.41300000000001</v>
+      </c>
+      <c r="P67">
+        <v>41.603999999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-290.50400000000002</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>965.93399999999997</v>
+      </c>
+      <c r="U67">
+        <v>361.82299999999998</v>
+      </c>
+      <c r="V67">
+        <v>-173.63800000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>21.96</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-117.852</v>
+      </c>
+      <c r="AA67">
+        <v>-187.083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-12.484</v>
+      </c>
+      <c r="D68">
+        <v>326.44400000000002</v>
+      </c>
+      <c r="E68">
+        <v>169.01599999999999</v>
+      </c>
+      <c r="F68">
+        <v>104.398</v>
+      </c>
+      <c r="G68">
+        <v>844.803</v>
+      </c>
+      <c r="H68">
+        <v>1639.443</v>
+      </c>
+      <c r="I68">
+        <v>69.093000000000004</v>
+      </c>
+      <c r="J68">
+        <v>23.428000000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>293.161</v>
+      </c>
+      <c r="O68">
+        <v>612.60799999999995</v>
+      </c>
+      <c r="P68">
+        <v>23.428000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>89.971999999999994</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1026.835</v>
+      </c>
+      <c r="U68">
+        <v>451.75400000000002</v>
+      </c>
+      <c r="V68">
+        <v>116.794</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>10.532</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-6.819</v>
+      </c>
+      <c r="AA68">
+        <v>-12.484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>36.054000000000002</v>
+      </c>
+      <c r="D69">
+        <v>381.53399999999999</v>
+      </c>
+      <c r="E69">
+        <v>197.345</v>
+      </c>
+      <c r="F69">
+        <v>101.941</v>
+      </c>
+      <c r="G69">
+        <v>1541.3219999999999</v>
+      </c>
+      <c r="H69">
+        <v>2374.3009999999999</v>
+      </c>
+      <c r="I69">
+        <v>69.933000000000007</v>
+      </c>
+      <c r="J69">
+        <v>23.710999999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>319.935</v>
+      </c>
+      <c r="O69">
+        <v>616.55100000000004</v>
+      </c>
+      <c r="P69">
+        <v>23.710999999999999</v>
+      </c>
+      <c r="Q69">
+        <v>676.27499999999998</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1757.75</v>
+      </c>
+      <c r="U69">
+        <v>1128.046</v>
+      </c>
+      <c r="V69">
+        <v>53.122999999999998</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>653.99400000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>36.054000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-149.62899999999999</v>
+      </c>
+      <c r="D70">
+        <v>444.15600000000001</v>
+      </c>
+      <c r="E70">
+        <v>264.69900000000001</v>
+      </c>
+      <c r="F70">
+        <v>-25.074000000000002</v>
+      </c>
+      <c r="G70">
+        <v>1504.854</v>
+      </c>
+      <c r="H70">
+        <v>2302.5819999999999</v>
+      </c>
+      <c r="I70">
+        <v>67.671000000000006</v>
+      </c>
+      <c r="J70">
+        <v>16.608000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>375.39600000000002</v>
+      </c>
+      <c r="O70">
+        <v>671.95299999999997</v>
+      </c>
+      <c r="P70">
+        <v>24.001000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-228.53800000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>1208</v>
+      </c>
+      <c r="T70">
+        <v>1630.6289999999999</v>
+      </c>
+      <c r="U70">
+        <v>899.50900000000001</v>
+      </c>
+      <c r="V70">
+        <v>-89.266999999999996</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-117.751</v>
+      </c>
+      <c r="AA70">
+        <v>-149.62899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-41.14</v>
+      </c>
+      <c r="D71">
+        <v>382.28199999999998</v>
+      </c>
+      <c r="E71">
+        <v>218.79</v>
+      </c>
+      <c r="F71">
+        <v>61.073</v>
+      </c>
+      <c r="G71">
+        <v>1469.5550000000001</v>
+      </c>
+      <c r="H71">
+        <v>2306.0120000000002</v>
+      </c>
+      <c r="I71">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="J71">
+        <v>16.811</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>381.072</v>
+      </c>
+      <c r="O71">
+        <v>677.96799999999996</v>
+      </c>
+      <c r="P71">
+        <v>24.271000000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1628.0440000000001</v>
+      </c>
+      <c r="U71">
+        <v>894.42700000000002</v>
+      </c>
+      <c r="V71">
+        <v>20.838000000000001</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-15.938000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>-41.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>52.393999999999998</v>
+      </c>
+      <c r="D72">
+        <v>521.51599999999996</v>
+      </c>
+      <c r="E72">
+        <v>315.01</v>
+      </c>
+      <c r="F72">
+        <v>198.571</v>
+      </c>
+      <c r="G72">
+        <v>1598.0840000000001</v>
+      </c>
+      <c r="H72">
+        <v>2397.1570000000002</v>
+      </c>
+      <c r="I72">
+        <v>75.558999999999997</v>
+      </c>
+      <c r="J72">
+        <v>17.015999999999998</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>368.23899999999998</v>
+      </c>
+      <c r="O72">
+        <v>664.23400000000004</v>
+      </c>
+      <c r="P72">
+        <v>24.57</v>
+      </c>
+      <c r="Q72">
+        <v>34.143000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1732.923</v>
+      </c>
+      <c r="U72">
+        <v>928.51700000000005</v>
+      </c>
+      <c r="V72">
+        <v>32.402999999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>6.8689999999999998</v>
+      </c>
+      <c r="AA72">
+        <v>52.393999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>29.175999999999998</v>
+      </c>
+      <c r="D73">
+        <v>449.68299999999999</v>
+      </c>
+      <c r="E73">
+        <v>247.33600000000001</v>
+      </c>
+      <c r="F73">
+        <v>132.36099999999999</v>
+      </c>
+      <c r="G73">
+        <v>1700.3589999999999</v>
+      </c>
+      <c r="H73">
+        <v>2519.9470000000001</v>
+      </c>
+      <c r="I73">
+        <v>95.477999999999994</v>
+      </c>
+      <c r="J73">
+        <v>17.224</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>422.48899999999998</v>
+      </c>
+      <c r="O73">
+        <v>717.048</v>
+      </c>
+      <c r="P73">
+        <v>24.872</v>
+      </c>
+      <c r="Q73">
+        <v>183.67099999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1802.8989999999999</v>
+      </c>
+      <c r="U73">
+        <v>1112.1790000000001</v>
+      </c>
+      <c r="V73">
+        <v>199.148</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="AA73">
+        <v>29.175999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>69.063000000000002</v>
+      </c>
+      <c r="D74">
+        <v>528.40200000000004</v>
+      </c>
+      <c r="E74">
+        <v>306.89800000000002</v>
+      </c>
+      <c r="F74">
+        <v>197.798</v>
+      </c>
+      <c r="G74">
+        <v>1832.2539999999999</v>
+      </c>
+      <c r="H74">
+        <v>2645.7620000000002</v>
+      </c>
+      <c r="I74">
+        <v>103.827</v>
+      </c>
+      <c r="J74">
+        <v>17.434000000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>425.27699999999999</v>
+      </c>
+      <c r="O74">
+        <v>719.79499999999996</v>
+      </c>
+      <c r="P74">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="Q74">
+        <v>51.798000000000002</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>1367</v>
+      </c>
+      <c r="T74">
+        <v>1925.9670000000001</v>
+      </c>
+      <c r="U74">
+        <v>1163.98</v>
+      </c>
+      <c r="V74">
+        <v>83.837999999999994</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-10.816000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>69.063000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>102.312</v>
+      </c>
+      <c r="D75">
+        <v>497.85700000000003</v>
+      </c>
+      <c r="E75">
+        <v>243.58099999999999</v>
+      </c>
+      <c r="F75">
+        <v>204.72399999999999</v>
+      </c>
+      <c r="G75">
+        <v>1904.5</v>
+      </c>
+      <c r="H75">
+        <v>2754.1610000000001</v>
+      </c>
+      <c r="I75">
+        <v>70.363</v>
+      </c>
+      <c r="J75">
+        <v>17.646999999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="N75">
+        <v>364.51499999999999</v>
+      </c>
+      <c r="O75">
+        <v>668.59400000000005</v>
+      </c>
+      <c r="P75">
+        <v>42.058999999999997</v>
+      </c>
+      <c r="Q75">
+        <v>135.71299999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2085.567</v>
+      </c>
+      <c r="U75">
+        <v>1299.704</v>
+      </c>
+      <c r="V75">
+        <v>155.66300000000001</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>13.352</v>
+      </c>
+      <c r="Z75">
+        <v>-6.2960000000000003</v>
+      </c>
+      <c r="AA75">
+        <v>102.312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>105.318</v>
+      </c>
+      <c r="D76">
+        <v>529.93200000000002</v>
+      </c>
+      <c r="E76">
+        <v>302.38</v>
+      </c>
+      <c r="F76">
+        <v>211.16300000000001</v>
+      </c>
+      <c r="G76">
+        <v>2058.625</v>
+      </c>
+      <c r="H76">
+        <v>2947.6329999999998</v>
+      </c>
+      <c r="I76">
+        <v>66.183999999999997</v>
+      </c>
+      <c r="J76">
+        <v>17.861999999999998</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>367.10500000000002</v>
+      </c>
+      <c r="O76">
+        <v>700.44200000000001</v>
+      </c>
+      <c r="P76">
+        <v>74.412000000000006</v>
+      </c>
+      <c r="Q76">
+        <v>116.539</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2247.1909999999998</v>
+      </c>
+      <c r="U76">
+        <v>1416.2239999999999</v>
+      </c>
+      <c r="V76">
+        <v>152.96</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>9.01</v>
+      </c>
+      <c r="Y76">
+        <v>44.927</v>
+      </c>
+      <c r="Z76">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>105.318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>128.27099999999999</v>
+      </c>
+      <c r="D77">
+        <v>551.58100000000002</v>
+      </c>
+      <c r="E77">
+        <v>275.51600000000002</v>
+      </c>
+      <c r="F77">
+        <v>240.20500000000001</v>
+      </c>
+      <c r="G77">
+        <v>2319.5949999999998</v>
+      </c>
+      <c r="H77">
+        <v>3214.8180000000002</v>
+      </c>
+      <c r="I77">
+        <v>95.376000000000005</v>
+      </c>
+      <c r="J77">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>461.68299999999999</v>
+      </c>
+      <c r="O77">
+        <v>792.29100000000005</v>
+      </c>
+      <c r="P77">
+        <v>74.272999999999996</v>
+      </c>
+      <c r="Q77">
+        <v>285.77999999999997</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2422.527</v>
+      </c>
+      <c r="U77">
+        <v>1702.0229999999999</v>
+      </c>
+      <c r="V77">
+        <v>270.41500000000002</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>2.8940000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>45.058</v>
+      </c>
+      <c r="Z77">
+        <v>-4.5279999999999996</v>
+      </c>
+      <c r="AA77">
+        <v>128.27099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>111.005</v>
+      </c>
+      <c r="D78">
+        <v>579.38900000000001</v>
+      </c>
+      <c r="E78">
+        <v>304.90899999999999</v>
+      </c>
+      <c r="F78">
+        <v>234.30699999999999</v>
+      </c>
+      <c r="G78">
+        <v>2481.4879999999998</v>
+      </c>
+      <c r="H78">
+        <v>3426.75</v>
+      </c>
+      <c r="I78">
+        <v>83.647000000000006</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>513.34</v>
+      </c>
+      <c r="O78">
+        <v>828.34400000000005</v>
+      </c>
+      <c r="P78">
+        <v>72.078999999999994</v>
+      </c>
+      <c r="Q78">
+        <v>130.68899999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>1456</v>
+      </c>
+      <c r="T78">
+        <v>2598.4059999999999</v>
+      </c>
+      <c r="U78">
+        <v>1832.684</v>
+      </c>
+      <c r="V78">
+        <v>131.61799999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>29.32</v>
+      </c>
+      <c r="Y78">
+        <v>43.771999999999998</v>
+      </c>
+      <c r="Z78">
+        <v>-0.71299999999999997</v>
+      </c>
+      <c r="AA78">
+        <v>111.005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-720.64200000000005</v>
+      </c>
+      <c r="D79">
+        <v>568.50699999999995</v>
+      </c>
+      <c r="E79">
+        <v>351.42200000000003</v>
+      </c>
+      <c r="F79">
+        <v>-546.22900000000004</v>
+      </c>
+      <c r="G79">
+        <v>1716.1690000000001</v>
+      </c>
+      <c r="H79">
+        <v>2752.422</v>
+      </c>
+      <c r="I79">
+        <v>60.936999999999998</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.187</v>
+      </c>
+      <c r="N79">
+        <v>503.41199999999998</v>
+      </c>
+      <c r="O79">
+        <v>814.70100000000002</v>
+      </c>
+      <c r="P79">
+        <v>71.564999999999998</v>
+      </c>
+      <c r="Q79">
+        <v>-787.91800000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1937.721</v>
+      </c>
+      <c r="U79">
+        <v>1043.241</v>
+      </c>
+      <c r="V79">
+        <v>-683.41700000000003</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>43.11</v>
+      </c>
+      <c r="Z79">
+        <v>-69.295000000000002</v>
+      </c>
+      <c r="AA79">
+        <v>-720.64200000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>290.298</v>
+      </c>
+      <c r="D80">
+        <v>688.04300000000001</v>
+      </c>
+      <c r="E80">
+        <v>420.15</v>
+      </c>
+      <c r="F80">
+        <v>354.82499999999999</v>
+      </c>
+      <c r="G80">
+        <v>2077.625</v>
+      </c>
+      <c r="H80">
+        <v>3212.3209999999999</v>
+      </c>
+      <c r="I80">
+        <v>90.909000000000006</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>556.51300000000003</v>
+      </c>
+      <c r="O80">
+        <v>867.71699999999998</v>
+      </c>
+      <c r="P80">
+        <v>75.709000000000003</v>
+      </c>
+      <c r="Q80">
+        <v>283.524</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2344.6039999999998</v>
+      </c>
+      <c r="U80">
+        <v>1326.73</v>
+      </c>
+      <c r="V80">
+        <v>269.38200000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>56.406999999999996</v>
+      </c>
+      <c r="Y80">
+        <v>45.872999999999998</v>
+      </c>
+      <c r="Z80">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>290.298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-15.202999999999999</v>
+      </c>
+      <c r="D81">
+        <v>620.64300000000003</v>
+      </c>
+      <c r="E81">
+        <v>354.28199999999998</v>
+      </c>
+      <c r="F81">
+        <v>133.22300000000001</v>
+      </c>
+      <c r="G81">
+        <v>2159.4250000000002</v>
+      </c>
+      <c r="H81">
+        <v>3307.43</v>
+      </c>
+      <c r="I81">
+        <v>122.512</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>606.202</v>
+      </c>
+      <c r="O81">
+        <v>916.59699999999998</v>
+      </c>
+      <c r="P81">
+        <v>70.863</v>
+      </c>
+      <c r="Q81">
+        <v>171.125</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2390.8330000000001</v>
+      </c>
+      <c r="U81">
+        <v>1497.7750000000001</v>
+      </c>
+      <c r="V81">
+        <v>182.11500000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="Y81">
+        <v>46.271999999999998</v>
+      </c>
+      <c r="Z81">
+        <v>38.368000000000002</v>
+      </c>
+      <c r="AA81">
+        <v>-15.202999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>149.85</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>789.50900000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>479.99400000000003</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>334.81200000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2359.8939999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3560.9180000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>98.766999999999996</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>631.19500000000005</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>949.65</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>61.719000000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>14.327</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>1773</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2611.268</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1513.008</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>107.321</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>11.872</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>46.761000000000003</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-51.296999999999997</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>149.85</v>
       </c>
     </row>
